--- a/APM files/124406355/Evolve EOC Listings 2.23.24.xlsx
+++ b/APM files/124406355/Evolve EOC Listings 2.23.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntuz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124406355\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02DC908-C54E-4A20-987C-680A06E3C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587530F-2971-4934-8C0A-AA3771916A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="1590" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>EXPEDIA_ID</t>
+  </si>
+  <si>
+    <t>LISTING_RESIGNDATE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,26 +326,26 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
-    <col min="6" max="6" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("IMPORTDATA(""https://app.periscopedata.com/api/evolve-vacation-rental-network/chart/csv/b73f80de-0245-6b1b-c722-6fe62a16d1f3"")"),"EXPEDIA_ID")</f>
-        <v>EXPEDIA_ID</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LISTING_RESIGNDATE")</f>
-        <v>LISTING_RESIGNDATE</v>
+    <row r="1" spans="1:6" ht="12.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -343,5313 +354,4937 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94952473)</f>
         <v>94952473</v>
       </c>
       <c r="B2" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101220316)</f>
         <v>101220316</v>
       </c>
       <c r="B3" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93207532)</f>
         <v>93207532</v>
       </c>
       <c r="B4" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94310969)</f>
         <v>94310969</v>
       </c>
       <c r="B5" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93207301)</f>
         <v>93207301</v>
       </c>
       <c r="B6" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93207087)</f>
         <v>93207087</v>
       </c>
       <c r="B7" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94411956)</f>
         <v>94411956</v>
       </c>
       <c r="B8" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849269)</f>
         <v>100849269</v>
       </c>
       <c r="B9" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93547381)</f>
         <v>93547381</v>
       </c>
       <c r="B10" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93537061)</f>
         <v>93537061</v>
       </c>
       <c r="B11" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99610480)</f>
         <v>99610480</v>
       </c>
       <c r="B12" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94959507)</f>
         <v>94959507</v>
       </c>
       <c r="B13" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94956036)</f>
         <v>94956036</v>
       </c>
       <c r="B14" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98554026)</f>
         <v>98554026</v>
       </c>
       <c r="B15" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98549086)</f>
         <v>98549086</v>
       </c>
       <c r="B16" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94374182)</f>
         <v>94374182</v>
       </c>
       <c r="B17" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93587103)</f>
         <v>93587103</v>
       </c>
       <c r="B18" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100167138)</f>
         <v>100167138</v>
       </c>
       <c r="B19" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93589334)</f>
         <v>93589334</v>
       </c>
       <c r="B20" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98553170)</f>
         <v>98553170</v>
       </c>
       <c r="B21" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98556435)</f>
         <v>98556435</v>
       </c>
       <c r="B22" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100777305)</f>
         <v>100777305</v>
       </c>
       <c r="B23" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99914633)</f>
         <v>99914633</v>
       </c>
       <c r="B24" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98544696)</f>
         <v>98544696</v>
       </c>
       <c r="B25" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98551032)</f>
         <v>98551032</v>
       </c>
       <c r="B26" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94480260)</f>
         <v>94480260</v>
       </c>
       <c r="B27" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94374506)</f>
         <v>94374506</v>
       </c>
       <c r="B28" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94961717)</f>
         <v>94961717</v>
       </c>
       <c r="B29" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98551074)</f>
         <v>98551074</v>
       </c>
       <c r="B30" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94459676)</f>
         <v>94459676</v>
       </c>
       <c r="B31" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98551252)</f>
         <v>98551252</v>
       </c>
       <c r="B32" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953219)</f>
         <v>94953219</v>
       </c>
       <c r="B33" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100100249)</f>
         <v>100100249</v>
       </c>
       <c r="B34" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98545176)</f>
         <v>98545176</v>
       </c>
       <c r="B35" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98547837)</f>
         <v>98547837</v>
       </c>
       <c r="B36" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45337)</f>
         <v>45337</v>
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="12.5">
+    <row r="37" spans="1:5" ht="12.75">
       <c r="A37" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94357223)</f>
         <v>94357223</v>
       </c>
       <c r="B37" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="12.5">
+    <row r="38" spans="1:5" ht="12.75">
       <c r="A38" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953115)</f>
         <v>94953115</v>
       </c>
       <c r="B38" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="12.5">
+    <row r="39" spans="1:5" ht="12.75">
       <c r="A39" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93546510)</f>
         <v>93546510</v>
       </c>
       <c r="B39" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="12.5">
+    <row r="40" spans="1:5" ht="12.75">
       <c r="A40" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93537274)</f>
         <v>93537274</v>
       </c>
       <c r="B40" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="12.5">
+    <row r="41" spans="1:5" ht="12.75">
       <c r="A41" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98549664)</f>
         <v>98549664</v>
       </c>
       <c r="B41" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="12.5">
+    <row r="42" spans="1:5" ht="12.75">
       <c r="A42" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93596901)</f>
         <v>93596901</v>
       </c>
       <c r="B42" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="12.5">
+    <row r="43" spans="1:5" ht="12.75">
       <c r="A43" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94960339)</f>
         <v>94960339</v>
       </c>
       <c r="B43" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="12.5">
+    <row r="44" spans="1:5" ht="12.75">
       <c r="A44" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102107167)</f>
         <v>102107167</v>
       </c>
       <c r="B44" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="12.5">
+    <row r="45" spans="1:5" ht="12.75">
       <c r="A45" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93570740)</f>
         <v>93570740</v>
       </c>
       <c r="B45" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="12.5">
+    <row r="46" spans="1:5" ht="12.75">
       <c r="A46" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94370742)</f>
         <v>94370742</v>
       </c>
       <c r="B46" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="12.5">
+    <row r="47" spans="1:5" ht="12.75">
       <c r="A47" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99956420)</f>
         <v>99956420</v>
       </c>
       <c r="B47" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="12.5">
+    <row r="48" spans="1:5" ht="12.75">
       <c r="A48" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849784)</f>
         <v>100849784</v>
       </c>
       <c r="B48" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="12.5">
+    <row r="49" spans="1:5" ht="12.75">
       <c r="A49" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93570953)</f>
         <v>93570953</v>
       </c>
       <c r="B49" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="12.5">
+    <row r="50" spans="1:5" ht="12.75">
       <c r="A50" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98545076)</f>
         <v>98545076</v>
       </c>
       <c r="B50" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="12.5">
+    <row r="51" spans="1:5" ht="12.75">
       <c r="A51" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100874615)</f>
         <v>100874615</v>
       </c>
       <c r="B51" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="12.5">
+    <row r="52" spans="1:5" ht="12.75">
       <c r="A52" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94387829)</f>
         <v>94387829</v>
       </c>
       <c r="B52" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="12.5">
+    <row r="53" spans="1:5" ht="12.75">
       <c r="A53" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100694662)</f>
         <v>100694662</v>
       </c>
       <c r="B53" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="12.5">
+    <row r="54" spans="1:5" ht="12.75">
       <c r="A54" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94954644)</f>
         <v>94954644</v>
       </c>
       <c r="B54" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="12.5">
+    <row r="55" spans="1:5" ht="12.75">
       <c r="A55" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93200712)</f>
         <v>93200712</v>
       </c>
       <c r="B55" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="12.5">
+    <row r="56" spans="1:5" ht="12.75">
       <c r="A56" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98556368)</f>
         <v>98556368</v>
       </c>
       <c r="B56" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="12.5">
+    <row r="57" spans="1:5" ht="12.75">
       <c r="A57" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94415983)</f>
         <v>94415983</v>
       </c>
       <c r="B57" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="12.5">
+    <row r="58" spans="1:5" ht="12.75">
       <c r="A58" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93206377)</f>
         <v>93206377</v>
       </c>
       <c r="B58" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="12.5">
+    <row r="59" spans="1:5" ht="12.75">
       <c r="A59" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98552044)</f>
         <v>98552044</v>
       </c>
       <c r="B59" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="12.5">
+    <row r="60" spans="1:5" ht="12.75">
       <c r="A60" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99261162)</f>
         <v>99261162</v>
       </c>
       <c r="B60" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="12.5">
+    <row r="61" spans="1:5" ht="12.75">
       <c r="A61" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953161)</f>
         <v>94953161</v>
       </c>
       <c r="B61" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="12.5">
+    <row r="62" spans="1:5" ht="12.75">
       <c r="A62" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94389541)</f>
         <v>94389541</v>
       </c>
       <c r="B62" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="12.5">
+    <row r="63" spans="1:5" ht="12.75">
       <c r="A63" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101587790)</f>
         <v>101587790</v>
       </c>
       <c r="B63" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" ht="12.5">
+    <row r="64" spans="1:5" ht="12.75">
       <c r="A64" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94508864)</f>
         <v>94508864</v>
       </c>
       <c r="B64" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="12.5">
+    <row r="65" spans="1:5" ht="12.75">
       <c r="A65" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953296)</f>
         <v>94953296</v>
       </c>
       <c r="B65" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="12.5">
+    <row r="66" spans="1:5" ht="12.75">
       <c r="A66" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953699)</f>
         <v>94953699</v>
       </c>
       <c r="B66" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45338)</f>
         <v>45338</v>
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="12.5">
+    <row r="67" spans="1:5" ht="12.75">
       <c r="A67" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100994992)</f>
         <v>100994992</v>
       </c>
       <c r="B67" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45339)</f>
         <v>45339</v>
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" ht="12.5">
+    <row r="68" spans="1:5" ht="12.75">
       <c r="A68" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93201809)</f>
         <v>93201809</v>
       </c>
       <c r="B68" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45339)</f>
         <v>45339</v>
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" ht="12.5">
+    <row r="69" spans="1:5" ht="12.75">
       <c r="A69" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94522653)</f>
         <v>94522653</v>
       </c>
       <c r="B69" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="12.5">
+    <row r="70" spans="1:5" ht="12.75">
       <c r="A70" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93200860)</f>
         <v>93200860</v>
       </c>
       <c r="B70" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="12.5">
+    <row r="71" spans="1:5" ht="12.75">
       <c r="A71" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94955537)</f>
         <v>94955537</v>
       </c>
       <c r="B71" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" ht="12.5">
+    <row r="72" spans="1:5" ht="12.75">
       <c r="A72" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94952326)</f>
         <v>94952326</v>
       </c>
       <c r="B72" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" ht="12.5">
+    <row r="73" spans="1:5" ht="12.75">
       <c r="A73" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99795002)</f>
         <v>99795002</v>
       </c>
       <c r="B73" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" ht="12.5">
+    <row r="74" spans="1:5" ht="12.75">
       <c r="A74" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93199850)</f>
         <v>93199850</v>
       </c>
       <c r="B74" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" ht="12.5">
+    <row r="75" spans="1:5" ht="12.75">
       <c r="A75" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98554158)</f>
         <v>98554158</v>
       </c>
       <c r="B75" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" ht="12.5">
+    <row r="76" spans="1:5" ht="12.75">
       <c r="A76" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94317425)</f>
         <v>94317425</v>
       </c>
       <c r="B76" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" ht="12.5">
+    <row r="77" spans="1:5" ht="12.75">
       <c r="A77" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98555689)</f>
         <v>98555689</v>
       </c>
       <c r="B77" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="12.5">
+    <row r="78" spans="1:5" ht="12.75">
       <c r="A78" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93536550)</f>
         <v>93536550</v>
       </c>
       <c r="B78" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="12.5">
+    <row r="79" spans="1:5" ht="12.75">
       <c r="A79" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100850339)</f>
         <v>100850339</v>
       </c>
       <c r="B79" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" ht="12.5">
+    <row r="80" spans="1:5" ht="12.75">
       <c r="A80" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849876)</f>
         <v>100849876</v>
       </c>
       <c r="B80" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45340)</f>
         <v>45340</v>
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" ht="12.5">
+    <row r="81" spans="1:5" ht="12.75">
       <c r="A81" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93402868)</f>
         <v>93402868</v>
       </c>
       <c r="B81" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="12.5">
+    <row r="82" spans="1:5" ht="12.75">
       <c r="A82" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94959344)</f>
         <v>94959344</v>
       </c>
       <c r="B82" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" ht="12.5">
+    <row r="83" spans="1:5" ht="12.75">
       <c r="A83" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93205333)</f>
         <v>93205333</v>
       </c>
       <c r="B83" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" ht="12.5">
+    <row r="84" spans="1:5" ht="12.75">
       <c r="A84" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93546711)</f>
         <v>93546711</v>
       </c>
       <c r="B84" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="12.5">
+    <row r="85" spans="1:5" ht="12.75">
       <c r="A85" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93204135)</f>
         <v>93204135</v>
       </c>
       <c r="B85" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="12.5">
+    <row r="86" spans="1:5" ht="12.75">
       <c r="A86" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98553951)</f>
         <v>98553951</v>
       </c>
       <c r="B86" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" ht="12.5">
+    <row r="87" spans="1:5" ht="12.75">
       <c r="A87" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100652136)</f>
         <v>100652136</v>
       </c>
       <c r="B87" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" ht="12.5">
+    <row r="88" spans="1:5" ht="12.75">
       <c r="A88" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99823100)</f>
         <v>99823100</v>
       </c>
       <c r="B88" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" ht="12.5">
+    <row r="89" spans="1:5" ht="12.75">
       <c r="A89" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99286265)</f>
         <v>99286265</v>
       </c>
       <c r="B89" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" ht="12.5">
+    <row r="90" spans="1:5" ht="12.75">
       <c r="A90" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94952361)</f>
         <v>94952361</v>
       </c>
       <c r="B90" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" ht="12.5">
+    <row r="91" spans="1:5" ht="12.75">
       <c r="A91" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98552480)</f>
         <v>98552480</v>
       </c>
       <c r="B91" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" ht="12.5">
+    <row r="92" spans="1:5" ht="12.75">
       <c r="A92" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94458960)</f>
         <v>94458960</v>
       </c>
       <c r="B92" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="12.5">
+    <row r="93" spans="1:5" ht="12.75">
       <c r="A93" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93200380)</f>
         <v>93200380</v>
       </c>
       <c r="B93" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="12.5">
+    <row r="94" spans="1:5" ht="12.75">
       <c r="A94" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94371027)</f>
         <v>94371027</v>
       </c>
       <c r="B94" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" ht="12.5">
+    <row r="95" spans="1:5" ht="12.75">
       <c r="A95" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94384501)</f>
         <v>94384501</v>
       </c>
       <c r="B95" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" ht="12.5">
+    <row r="96" spans="1:5" ht="12.75">
       <c r="A96" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98547537)</f>
         <v>98547537</v>
       </c>
       <c r="B96" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" ht="12.5">
+    <row r="97" spans="1:5" ht="12.75">
       <c r="A97" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94412510)</f>
         <v>94412510</v>
       </c>
       <c r="B97" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" ht="12.5">
+    <row r="98" spans="1:5" ht="12.75">
       <c r="A98" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98555067)</f>
         <v>98555067</v>
       </c>
       <c r="B98" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" ht="12.5">
+    <row r="99" spans="1:5" ht="12.75">
       <c r="A99" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98554060)</f>
         <v>98554060</v>
       </c>
       <c r="B99" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" ht="12.5">
+    <row r="100" spans="1:5" ht="12.75">
       <c r="A100" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93547575)</f>
         <v>93547575</v>
       </c>
       <c r="B100" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" ht="12.5">
+    <row r="101" spans="1:5" ht="12.75">
       <c r="A101" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94961852)</f>
         <v>94961852</v>
       </c>
       <c r="B101" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="12.5">
+    <row r="102" spans="1:5" ht="12.75">
       <c r="A102" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100652138)</f>
         <v>100652138</v>
       </c>
       <c r="B102" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" ht="12.5">
+    <row r="103" spans="1:5" ht="12.75">
       <c r="A103" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100652137)</f>
         <v>100652137</v>
       </c>
       <c r="B103" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" ht="12.5">
+    <row r="104" spans="1:5" ht="12.75">
       <c r="A104" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94330683)</f>
         <v>94330683</v>
       </c>
       <c r="B104" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" ht="12.5">
+    <row r="105" spans="1:5" ht="12.75">
       <c r="A105" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100850392)</f>
         <v>100850392</v>
       </c>
       <c r="B105" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" ht="12.5">
+    <row r="106" spans="1:5" ht="12.75">
       <c r="A106" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849848)</f>
         <v>100849848</v>
       </c>
       <c r="B106" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" ht="12.5">
+    <row r="107" spans="1:5" ht="12.75">
       <c r="A107" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94531957)</f>
         <v>94531957</v>
       </c>
       <c r="B107" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" ht="12.5">
+    <row r="108" spans="1:5" ht="12.75">
       <c r="A108" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94539177)</f>
         <v>94539177</v>
       </c>
       <c r="B108" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" ht="12.5">
+    <row r="109" spans="1:5" ht="12.75">
       <c r="A109" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94337723)</f>
         <v>94337723</v>
       </c>
       <c r="B109" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="12.5">
+    <row r="110" spans="1:5" ht="12.75">
       <c r="A110" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94956388)</f>
         <v>94956388</v>
       </c>
       <c r="B110" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" ht="12.5">
+    <row r="111" spans="1:5" ht="12.75">
       <c r="A111" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100100343)</f>
         <v>100100343</v>
       </c>
       <c r="B111" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" ht="12.5">
+    <row r="112" spans="1:5" ht="12.75">
       <c r="A112" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94335612)</f>
         <v>94335612</v>
       </c>
       <c r="B112" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" ht="12.5">
+    <row r="113" spans="1:5" ht="12.75">
       <c r="A113" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94367052)</f>
         <v>94367052</v>
       </c>
       <c r="B113" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" ht="12.5">
+    <row r="114" spans="1:5" ht="12.75">
       <c r="A114" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99773383)</f>
         <v>99773383</v>
       </c>
       <c r="B114" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="12.5">
+    <row r="115" spans="1:5" ht="12.75">
       <c r="A115" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849350)</f>
         <v>100849350</v>
       </c>
       <c r="B115" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" ht="12.5">
+    <row r="116" spans="1:5" ht="12.75">
       <c r="A116" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93600678)</f>
         <v>93600678</v>
       </c>
       <c r="B116" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" ht="12.5">
+    <row r="117" spans="1:5" ht="12.75">
       <c r="A117" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100652139)</f>
         <v>100652139</v>
       </c>
       <c r="B117" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="12.5">
+    <row r="118" spans="1:5" ht="12.75">
       <c r="A118" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100652135)</f>
         <v>100652135</v>
       </c>
       <c r="B118" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" ht="12.5">
+    <row r="119" spans="1:5" ht="12.75">
       <c r="A119" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94495341)</f>
         <v>94495341</v>
       </c>
       <c r="B119" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45341)</f>
         <v>45341</v>
       </c>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" ht="12.5">
+    <row r="120" spans="1:5" ht="12.75">
       <c r="A120" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98548862)</f>
         <v>98548862</v>
       </c>
       <c r="B120" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" ht="12.5">
+    <row r="121" spans="1:5" ht="12.75">
       <c r="A121" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100464015)</f>
         <v>100464015</v>
       </c>
       <c r="B121" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" ht="12.5">
+    <row r="122" spans="1:5" ht="12.75">
       <c r="A122" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102402576)</f>
         <v>102402576</v>
       </c>
       <c r="B122" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" ht="12.5">
+    <row r="123" spans="1:5" ht="12.75">
       <c r="A123" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849546)</f>
         <v>100849546</v>
       </c>
       <c r="B123" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" ht="12.5">
+    <row r="124" spans="1:5" ht="12.75">
       <c r="A124" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93547624)</f>
         <v>93547624</v>
       </c>
       <c r="B124" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" ht="12.5">
+    <row r="125" spans="1:5" ht="12.75">
       <c r="A125" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100850235)</f>
         <v>100850235</v>
       </c>
       <c r="B125" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="12.5">
+    <row r="126" spans="1:5" ht="12.75">
       <c r="A126" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99978102)</f>
         <v>99978102</v>
       </c>
       <c r="B126" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" ht="12.5">
+    <row r="127" spans="1:5" ht="12.75">
       <c r="A127" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94370572)</f>
         <v>94370572</v>
       </c>
       <c r="B127" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" ht="12.5">
+    <row r="128" spans="1:5" ht="12.75">
       <c r="A128" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953472)</f>
         <v>94953472</v>
       </c>
       <c r="B128" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" ht="12.5">
+    <row r="129" spans="1:5" ht="12.75">
       <c r="A129" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98556874)</f>
         <v>98556874</v>
       </c>
       <c r="B129" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" ht="12.5">
+    <row r="130" spans="1:5" ht="12.75">
       <c r="A130" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93202288)</f>
         <v>93202288</v>
       </c>
       <c r="B130" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" ht="12.5">
+    <row r="131" spans="1:5" ht="12.75">
       <c r="A131" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93570845)</f>
         <v>93570845</v>
       </c>
       <c r="B131" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" ht="12.5">
+    <row r="132" spans="1:5" ht="12.75">
       <c r="A132" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93596894)</f>
         <v>93596894</v>
       </c>
       <c r="B132" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" ht="12.5">
+    <row r="133" spans="1:5" ht="12.75">
       <c r="A133" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98553045)</f>
         <v>98553045</v>
       </c>
       <c r="B133" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="12.5">
+    <row r="134" spans="1:5" ht="12.75">
       <c r="A134" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99610436)</f>
         <v>99610436</v>
       </c>
       <c r="B134" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" ht="12.5">
+    <row r="135" spans="1:5" ht="12.75">
       <c r="A135" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99956374)</f>
         <v>99956374</v>
       </c>
       <c r="B135" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" ht="12.5">
+    <row r="136" spans="1:5" ht="12.75">
       <c r="A136" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100463968)</f>
         <v>100463968</v>
       </c>
       <c r="B136" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" ht="12.5">
+    <row r="137" spans="1:5" ht="12.75">
       <c r="A137" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98545066)</f>
         <v>98545066</v>
       </c>
       <c r="B137" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" ht="12.5">
+    <row r="138" spans="1:5" ht="12.75">
       <c r="A138" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102129707)</f>
         <v>102129707</v>
       </c>
       <c r="B138" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" ht="12.5">
+    <row r="139" spans="1:5" ht="12.75">
       <c r="A139" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98545221)</f>
         <v>98545221</v>
       </c>
       <c r="B139" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" ht="12.5">
+    <row r="140" spans="1:5" ht="12.75">
       <c r="A140" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93532725)</f>
         <v>93532725</v>
       </c>
       <c r="B140" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" ht="12.5">
+    <row r="141" spans="1:5" ht="12.75">
       <c r="A141" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94523484)</f>
         <v>94523484</v>
       </c>
       <c r="B141" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" ht="12.5">
+    <row r="142" spans="1:5" ht="12.75">
       <c r="A142" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100039495)</f>
         <v>100039495</v>
       </c>
       <c r="B142" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" ht="12.5">
+    <row r="143" spans="1:5" ht="12.75">
       <c r="A143" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93205057)</f>
         <v>93205057</v>
       </c>
       <c r="B143" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" ht="12.5">
+    <row r="144" spans="1:5" ht="12.75">
       <c r="A144" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98557033)</f>
         <v>98557033</v>
       </c>
       <c r="B144" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" ht="12.5">
+    <row r="145" spans="1:5" ht="12.75">
       <c r="A145" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99242262)</f>
         <v>99242262</v>
       </c>
       <c r="B145" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" ht="12.5">
+    <row r="146" spans="1:5" ht="12.75">
       <c r="A146" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93202181)</f>
         <v>93202181</v>
       </c>
       <c r="B146" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" ht="12.5">
+    <row r="147" spans="1:5" ht="12.75">
       <c r="A147" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100850383)</f>
         <v>100850383</v>
       </c>
       <c r="B147" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" ht="12.5">
+    <row r="148" spans="1:5" ht="12.75">
       <c r="A148" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93546357)</f>
         <v>93546357</v>
       </c>
       <c r="B148" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" ht="12.5">
+    <row r="149" spans="1:5" ht="12.75">
       <c r="A149" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100777314)</f>
         <v>100777314</v>
       </c>
       <c r="B149" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" ht="12.5">
+    <row r="150" spans="1:5" ht="12.75">
       <c r="A150" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94368098)</f>
         <v>94368098</v>
       </c>
       <c r="B150" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" ht="12.5">
+    <row r="151" spans="1:5" ht="12.75">
       <c r="A151" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94953511)</f>
         <v>94953511</v>
       </c>
       <c r="B151" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" ht="12.5">
+    <row r="152" spans="1:5" ht="12.75">
       <c r="A152" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93205813)</f>
         <v>93205813</v>
       </c>
       <c r="B152" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" ht="12.5">
+    <row r="153" spans="1:5" ht="12.75">
       <c r="A153" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),95867135)</f>
         <v>95867135</v>
       </c>
       <c r="B153" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" ht="12.5">
+    <row r="154" spans="1:5" ht="12.75">
       <c r="A154" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94955436)</f>
         <v>94955436</v>
       </c>
       <c r="B154" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" ht="12.5">
+    <row r="155" spans="1:5" ht="12.75">
       <c r="A155" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94956159)</f>
         <v>94956159</v>
       </c>
       <c r="B155" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" ht="12.5">
+    <row r="156" spans="1:5" ht="12.75">
       <c r="A156" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100100344)</f>
         <v>100100344</v>
       </c>
       <c r="B156" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" ht="12.5">
+    <row r="157" spans="1:5" ht="12.75">
       <c r="A157" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93200327)</f>
         <v>93200327</v>
       </c>
       <c r="B157" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" ht="12.5">
+    <row r="158" spans="1:5" ht="12.75">
       <c r="A158" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101154678)</f>
         <v>101154678</v>
       </c>
       <c r="B158" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" ht="12.5">
+    <row r="159" spans="1:5" ht="12.75">
       <c r="A159" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94488743)</f>
         <v>94488743</v>
       </c>
       <c r="B159" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" ht="12.5">
+    <row r="160" spans="1:5" ht="12.75">
       <c r="A160" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98545061)</f>
         <v>98545061</v>
       </c>
       <c r="B160" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" ht="12.5">
+    <row r="161" spans="1:5" ht="12.75">
       <c r="A161" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94954943)</f>
         <v>94954943</v>
       </c>
       <c r="B161" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" ht="12.5">
+    <row r="162" spans="1:5" ht="12.75">
       <c r="A162" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94962661)</f>
         <v>94962661</v>
       </c>
       <c r="B162" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" ht="12.5">
+    <row r="163" spans="1:5" ht="12.75">
       <c r="A163" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94952556)</f>
         <v>94952556</v>
       </c>
       <c r="B163" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" ht="12.5">
+    <row r="164" spans="1:5" ht="12.75">
       <c r="A164" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94959894)</f>
         <v>94959894</v>
       </c>
       <c r="B164" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" ht="12.5">
+    <row r="165" spans="1:5" ht="12.75">
       <c r="A165" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93546017)</f>
         <v>93546017</v>
       </c>
       <c r="B165" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="12.5">
+    <row r="166" spans="1:5" ht="12.75">
       <c r="A166" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94964462)</f>
         <v>94964462</v>
       </c>
       <c r="B166" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" ht="12.5">
+    <row r="167" spans="1:5" ht="12.75">
       <c r="A167" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94358081)</f>
         <v>94358081</v>
       </c>
       <c r="B167" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" ht="12.5">
+    <row r="168" spans="1:5" ht="12.75">
       <c r="A168" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100423982)</f>
         <v>100423982</v>
       </c>
       <c r="B168" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" ht="12.5">
+    <row r="169" spans="1:5" ht="12.75">
       <c r="A169" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98555235)</f>
         <v>98555235</v>
       </c>
       <c r="B169" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" ht="12.5">
+    <row r="170" spans="1:5" ht="12.75">
       <c r="A170" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99261035)</f>
         <v>99261035</v>
       </c>
       <c r="B170" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" ht="12.5">
+    <row r="171" spans="1:5" ht="12.75">
       <c r="A171" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93201305)</f>
         <v>93201305</v>
       </c>
       <c r="B171" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" ht="12.5">
+    <row r="172" spans="1:5" ht="12.75">
       <c r="A172" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94954785)</f>
         <v>94954785</v>
       </c>
       <c r="B172" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" ht="12.5">
+    <row r="173" spans="1:5" ht="12.75">
       <c r="A173" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100849495)</f>
         <v>100849495</v>
       </c>
       <c r="B173" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" ht="12.5">
+    <row r="174" spans="1:5" ht="12.75">
       <c r="A174" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98548645)</f>
         <v>98548645</v>
       </c>
       <c r="B174" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" ht="12.5">
+    <row r="175" spans="1:5" ht="12.75">
       <c r="A175" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93532639)</f>
         <v>93532639</v>
       </c>
       <c r="B175" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="12.5">
+    <row r="176" spans="1:5" ht="12.75">
       <c r="A176" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94362895)</f>
         <v>94362895</v>
       </c>
       <c r="B176" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" ht="12.5">
+    <row r="177" spans="1:5" ht="12.75">
       <c r="A177" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94958267)</f>
         <v>94958267</v>
       </c>
       <c r="B177" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" ht="12.5">
+    <row r="178" spans="1:5" ht="12.75">
       <c r="A178" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98551778)</f>
         <v>98551778</v>
       </c>
       <c r="B178" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" ht="12.5">
+    <row r="179" spans="1:5" ht="12.75">
       <c r="A179" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98553611)</f>
         <v>98553611</v>
       </c>
       <c r="B179" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" ht="12.5">
+    <row r="180" spans="1:5" ht="12.75">
       <c r="A180" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99242261)</f>
         <v>99242261</v>
       </c>
       <c r="B180" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="12.5">
+    <row r="181" spans="1:5" ht="12.75">
       <c r="A181" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98556865)</f>
         <v>98556865</v>
       </c>
       <c r="B181" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="12.5">
+    <row r="182" spans="1:5" ht="12.75">
       <c r="A182" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98553033)</f>
         <v>98553033</v>
       </c>
       <c r="B182" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="12.5">
+    <row r="183" spans="1:5" ht="12.75">
       <c r="A183" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),100850421)</f>
         <v>100850421</v>
       </c>
       <c r="B183" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="12.5">
+    <row r="184" spans="1:5" ht="12.75">
       <c r="A184" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99242258)</f>
         <v>99242258</v>
       </c>
       <c r="B184" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="12.5">
+    <row r="185" spans="1:5" ht="12.75">
       <c r="A185" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98554257)</f>
         <v>98554257</v>
       </c>
       <c r="B185" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" ht="12.5">
+    <row r="186" spans="1:5" ht="12.75">
       <c r="A186" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102402571)</f>
         <v>102402571</v>
       </c>
       <c r="B186" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45342)</f>
         <v>45342</v>
       </c>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="12.5">
+    <row r="187" spans="1:5" ht="12.75">
       <c r="A187" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),93546615)</f>
         <v>93546615</v>
       </c>
       <c r="B187" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45343)</f>
         <v>45343</v>
       </c>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="12.5">
+    <row r="188" spans="1:5" ht="12.75">
       <c r="A188" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94370525)</f>
         <v>94370525</v>
       </c>
       <c r="B188" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45343)</f>
         <v>45343</v>
       </c>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" ht="12.5">
+    <row r="189" spans="1:5" ht="12.75">
       <c r="A189" s="4">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94424059)</f>
         <v>94424059</v>
       </c>
       <c r="B189" s="5">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45343)</f>
         <v>45343</v>
       </c>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" ht="12.5">
+    <row r="190" spans="1:5" ht="12.75">
       <c r="B190" s="5"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" ht="12.5">
+    <row r="191" spans="1:5" ht="12.75">
       <c r="B191" s="5"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="12.5">
+    <row r="192" spans="1:5" ht="12.75">
       <c r="B192" s="5"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="2:5" ht="12.5">
+    <row r="193" spans="2:5" ht="12.75">
       <c r="B193" s="5"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="2:5" ht="12.5">
+    <row r="194" spans="2:5" ht="12.75">
       <c r="B194" s="5"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="2:5" ht="12.5">
+    <row r="195" spans="2:5" ht="12.75">
       <c r="B195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="2:5" ht="12.5">
+    <row r="196" spans="2:5" ht="12.75">
       <c r="B196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="2:5" ht="12.5">
+    <row r="197" spans="2:5" ht="12.75">
       <c r="B197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="2:5" ht="12.5">
+    <row r="198" spans="2:5" ht="12.75">
       <c r="B198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="2:5" ht="12.5">
+    <row r="199" spans="2:5" ht="12.75">
       <c r="B199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="2:5" ht="12.5">
+    <row r="200" spans="2:5" ht="12.75">
       <c r="B200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="2:5" ht="12.5">
+    <row r="201" spans="2:5" ht="12.75">
       <c r="B201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="2:5" ht="12.5">
+    <row r="202" spans="2:5" ht="12.75">
       <c r="B202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="2:5" ht="12.5">
+    <row r="203" spans="2:5" ht="12.75">
       <c r="B203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="2:5" ht="12.5">
+    <row r="204" spans="2:5" ht="12.75">
       <c r="B204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="2:5" ht="12.5">
+    <row r="205" spans="2:5" ht="12.75">
       <c r="B205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="2:5" ht="12.5">
+    <row r="206" spans="2:5" ht="12.75">
       <c r="B206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="2:5" ht="12.5">
+    <row r="207" spans="2:5" ht="12.75">
       <c r="B207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="2:5" ht="12.5">
+    <row r="208" spans="2:5" ht="12.75">
       <c r="B208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="2:5" ht="12.5">
+    <row r="209" spans="2:5" ht="12.75">
       <c r="B209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="2:5" ht="12.5">
+    <row r="210" spans="2:5" ht="12.75">
       <c r="B210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="2:5" ht="12.5">
+    <row r="211" spans="2:5" ht="12.75">
       <c r="B211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="2:5" ht="12.5">
+    <row r="212" spans="2:5" ht="12.75">
       <c r="B212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="2:5" ht="12.5">
+    <row r="213" spans="2:5" ht="12.75">
       <c r="B213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="2:5" ht="12.5">
+    <row r="214" spans="2:5" ht="12.75">
       <c r="B214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="2:5" ht="12.5">
+    <row r="215" spans="2:5" ht="12.75">
       <c r="B215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="2:5" ht="12.5">
+    <row r="216" spans="2:5" ht="12.75">
       <c r="B216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="2:5" ht="12.5">
+    <row r="217" spans="2:5" ht="12.75">
       <c r="B217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="2:5" ht="12.5">
+    <row r="218" spans="2:5" ht="12.75">
       <c r="B218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="2:5" ht="12.5">
+    <row r="219" spans="2:5" ht="12.75">
       <c r="B219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="2:5" ht="12.5">
+    <row r="220" spans="2:5" ht="12.75">
       <c r="B220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="2:5" ht="12.5">
+    <row r="221" spans="2:5" ht="12.75">
       <c r="B221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="2:5" ht="12.5">
+    <row r="222" spans="2:5" ht="12.75">
       <c r="B222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="2:5" ht="12.5">
+    <row r="223" spans="2:5" ht="12.75">
       <c r="B223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="2:5" ht="12.5">
+    <row r="224" spans="2:5" ht="12.75">
       <c r="B224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="2:5" ht="12.5">
+    <row r="225" spans="2:5" ht="12.75">
       <c r="B225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="2:5" ht="12.5">
+    <row r="226" spans="2:5" ht="12.75">
       <c r="B226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="2:5" ht="12.5">
+    <row r="227" spans="2:5" ht="12.75">
       <c r="B227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="2:5" ht="12.5">
+    <row r="228" spans="2:5" ht="12.75">
       <c r="B228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="2:5" ht="12.5">
+    <row r="229" spans="2:5" ht="12.75">
       <c r="B229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="2:5" ht="12.5">
+    <row r="230" spans="2:5" ht="12.75">
       <c r="B230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="2:5" ht="12.5">
+    <row r="231" spans="2:5" ht="12.75">
       <c r="B231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="2:5" ht="12.5">
+    <row r="232" spans="2:5" ht="12.75">
       <c r="B232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="2:5" ht="12.5">
+    <row r="233" spans="2:5" ht="12.75">
       <c r="B233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="2:5" ht="12.5">
+    <row r="234" spans="2:5" ht="12.75">
       <c r="B234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="2:5" ht="12.5">
+    <row r="235" spans="2:5" ht="12.75">
       <c r="B235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="2:5" ht="12.5">
+    <row r="236" spans="2:5" ht="12.75">
       <c r="B236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="2:5" ht="12.5">
+    <row r="237" spans="2:5" ht="12.75">
       <c r="B237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="2:5" ht="12.5">
+    <row r="238" spans="2:5" ht="12.75">
       <c r="B238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="2:5" ht="12.5">
+    <row r="239" spans="2:5" ht="12.75">
       <c r="B239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="2:5" ht="12.5">
+    <row r="240" spans="2:5" ht="12.75">
       <c r="B240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="2:5" ht="12.5">
+    <row r="241" spans="2:5" ht="12.75">
       <c r="B241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="2:5" ht="12.5">
+    <row r="242" spans="2:5" ht="12.75">
       <c r="B242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="2:5" ht="12.5">
+    <row r="243" spans="2:5" ht="12.75">
       <c r="B243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="2:5" ht="12.5">
+    <row r="244" spans="2:5" ht="12.75">
       <c r="B244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="2:5" ht="12.5">
+    <row r="245" spans="2:5" ht="12.75">
       <c r="B245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="2:5" ht="12.5">
+    <row r="246" spans="2:5" ht="12.75">
       <c r="B246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="2:5" ht="12.5">
+    <row r="247" spans="2:5" ht="12.75">
       <c r="B247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="2:5" ht="12.5">
+    <row r="248" spans="2:5" ht="12.75">
       <c r="B248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="2:5" ht="12.5">
+    <row r="249" spans="2:5" ht="12.75">
       <c r="B249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="2:5" ht="12.5">
+    <row r="250" spans="2:5" ht="12.75">
       <c r="B250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="2:5" ht="12.5">
+    <row r="251" spans="2:5" ht="12.75">
       <c r="B251" s="5"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="2:5" ht="12.5">
+    <row r="252" spans="2:5" ht="12.75">
       <c r="B252" s="5"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="2:5" ht="12.5">
+    <row r="253" spans="2:5" ht="12.75">
       <c r="B253" s="5"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="2:5" ht="12.5">
+    <row r="254" spans="2:5" ht="12.75">
       <c r="B254" s="5"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="2:5" ht="12.5">
+    <row r="255" spans="2:5" ht="12.75">
       <c r="B255" s="5"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="2:5" ht="12.5">
+    <row r="256" spans="2:5" ht="12.75">
       <c r="B256" s="5"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="2:5" ht="12.5">
+    <row r="257" spans="2:5" ht="12.75">
       <c r="B257" s="5"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="2:5" ht="12.5">
+    <row r="258" spans="2:5" ht="12.75">
       <c r="B258" s="5"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="2:5" ht="12.5">
+    <row r="259" spans="2:5" ht="12.75">
       <c r="B259" s="5"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="2:5" ht="12.5">
+    <row r="260" spans="2:5" ht="12.75">
       <c r="B260" s="5"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="2:5" ht="12.5">
+    <row r="261" spans="2:5" ht="12.75">
       <c r="B261" s="5"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="2:5" ht="12.5">
+    <row r="262" spans="2:5" ht="12.75">
       <c r="B262" s="5"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="2:5" ht="12.5">
+    <row r="263" spans="2:5" ht="12.75">
       <c r="B263" s="5"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="2:5" ht="12.5">
+    <row r="264" spans="2:5" ht="12.75">
       <c r="B264" s="5"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="2:5" ht="12.5">
+    <row r="265" spans="2:5" ht="12.75">
       <c r="B265" s="5"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="2:5" ht="12.5">
+    <row r="266" spans="2:5" ht="12.75">
       <c r="B266" s="5"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="2:5" ht="12.5">
+    <row r="267" spans="2:5" ht="12.75">
       <c r="B267" s="5"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="2:5" ht="12.5">
+    <row r="268" spans="2:5" ht="12.75">
       <c r="B268" s="5"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="2:5" ht="12.5">
+    <row r="269" spans="2:5" ht="12.75">
       <c r="B269" s="5"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="2:5" ht="12.5">
+    <row r="270" spans="2:5" ht="12.75">
       <c r="B270" s="5"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="2:5" ht="12.5">
+    <row r="271" spans="2:5" ht="12.75">
       <c r="B271" s="5"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="2:5" ht="12.5">
+    <row r="272" spans="2:5" ht="12.75">
       <c r="B272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="2:5" ht="12.5">
+    <row r="273" spans="2:5" ht="12.75">
       <c r="B273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="2:5" ht="12.5">
+    <row r="274" spans="2:5" ht="12.75">
       <c r="B274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="2:5" ht="12.5">
+    <row r="275" spans="2:5" ht="12.75">
       <c r="B275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="2:5" ht="12.5">
+    <row r="276" spans="2:5" ht="12.75">
       <c r="B276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="2:5" ht="12.5">
+    <row r="277" spans="2:5" ht="12.75">
       <c r="B277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="2:5" ht="12.5">
+    <row r="278" spans="2:5" ht="12.75">
       <c r="B278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="2:5" ht="12.5">
+    <row r="279" spans="2:5" ht="12.75">
       <c r="B279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="2:5" ht="12.5">
+    <row r="280" spans="2:5" ht="12.75">
       <c r="B280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="2:5" ht="12.5">
+    <row r="281" spans="2:5" ht="12.75">
       <c r="B281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="2:5" ht="12.5">
+    <row r="282" spans="2:5" ht="12.75">
       <c r="B282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="2:5" ht="12.5">
+    <row r="283" spans="2:5" ht="12.75">
       <c r="B283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="2:5" ht="12.5">
+    <row r="284" spans="2:5" ht="12.75">
       <c r="B284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="2:5" ht="12.5">
+    <row r="285" spans="2:5" ht="12.75">
       <c r="B285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="2:5" ht="12.5">
+    <row r="286" spans="2:5" ht="12.75">
       <c r="B286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="2:5" ht="12.5">
+    <row r="287" spans="2:5" ht="12.75">
       <c r="B287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="2:5" ht="12.5">
+    <row r="288" spans="2:5" ht="12.75">
       <c r="B288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="2:5" ht="12.5">
+    <row r="289" spans="2:5" ht="12.75">
       <c r="B289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="2:5" ht="12.5">
+    <row r="290" spans="2:5" ht="12.75">
       <c r="B290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="2:5" ht="12.5">
+    <row r="291" spans="2:5" ht="12.75">
       <c r="B291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="2:5" ht="12.5">
+    <row r="292" spans="2:5" ht="12.75">
       <c r="B292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="2:5" ht="12.5">
+    <row r="293" spans="2:5" ht="12.75">
       <c r="B293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="2:5" ht="12.5">
+    <row r="294" spans="2:5" ht="12.75">
       <c r="B294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="2:5" ht="12.5">
+    <row r="295" spans="2:5" ht="12.75">
       <c r="B295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="2:5" ht="12.5">
+    <row r="296" spans="2:5" ht="12.75">
       <c r="B296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="2:5" ht="12.5">
+    <row r="297" spans="2:5" ht="12.75">
       <c r="B297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="2:5" ht="12.5">
+    <row r="298" spans="2:5" ht="12.75">
       <c r="B298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="2:5" ht="12.5">
+    <row r="299" spans="2:5" ht="12.75">
       <c r="B299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="2:5" ht="12.5">
+    <row r="300" spans="2:5" ht="12.75">
       <c r="B300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="2:5" ht="12.5">
+    <row r="301" spans="2:5" ht="12.75">
       <c r="B301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="2:5" ht="12.5">
+    <row r="302" spans="2:5" ht="12.75">
       <c r="B302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="2:5" ht="12.5">
+    <row r="303" spans="2:5" ht="12.75">
       <c r="B303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="2:5" ht="12.5">
+    <row r="304" spans="2:5" ht="12.75">
       <c r="B304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="2:5" ht="12.5">
+    <row r="305" spans="2:5" ht="12.75">
       <c r="B305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="2:5" ht="12.5">
+    <row r="306" spans="2:5" ht="12.75">
       <c r="B306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="2:5" ht="12.5">
+    <row r="307" spans="2:5" ht="12.75">
       <c r="B307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="2:5" ht="12.5">
+    <row r="308" spans="2:5" ht="12.75">
       <c r="B308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="2:5" ht="12.5">
+    <row r="309" spans="2:5" ht="12.75">
       <c r="B309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="2:5" ht="12.5">
+    <row r="310" spans="2:5" ht="12.75">
       <c r="B310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="2:5" ht="12.5">
+    <row r="311" spans="2:5" ht="12.75">
       <c r="B311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="2:5" ht="12.5">
+    <row r="312" spans="2:5" ht="12.75">
       <c r="B312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="2:5" ht="12.5">
+    <row r="313" spans="2:5" ht="12.75">
       <c r="B313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="2:5" ht="12.5">
+    <row r="314" spans="2:5" ht="12.75">
       <c r="B314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="2:5" ht="12.5">
+    <row r="315" spans="2:5" ht="12.75">
       <c r="B315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="2:5" ht="12.5">
+    <row r="316" spans="2:5" ht="12.75">
       <c r="B316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="2:5" ht="12.5">
+    <row r="317" spans="2:5" ht="12.75">
       <c r="B317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="2:5" ht="12.5">
+    <row r="318" spans="2:5" ht="12.75">
       <c r="B318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="2:5" ht="12.5">
+    <row r="319" spans="2:5" ht="12.75">
       <c r="B319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="2:5" ht="12.5">
+    <row r="320" spans="2:5" ht="12.75">
       <c r="B320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="2:5" ht="12.5">
+    <row r="321" spans="2:5" ht="12.75">
       <c r="B321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="2:5" ht="12.5">
+    <row r="322" spans="2:5" ht="12.75">
       <c r="B322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="2:5" ht="12.5">
+    <row r="323" spans="2:5" ht="12.75">
       <c r="B323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="2:5" ht="12.5">
+    <row r="324" spans="2:5" ht="12.75">
       <c r="B324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="2:5" ht="12.5">
+    <row r="325" spans="2:5" ht="12.75">
       <c r="B325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="2:5" ht="12.5">
+    <row r="326" spans="2:5" ht="12.75">
       <c r="B326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="2:5" ht="12.5">
+    <row r="327" spans="2:5" ht="12.75">
       <c r="B327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="2:5" ht="12.5">
+    <row r="328" spans="2:5" ht="12.75">
       <c r="B328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="2:5" ht="12.5">
+    <row r="329" spans="2:5" ht="12.75">
       <c r="B329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="2:5" ht="12.5">
+    <row r="330" spans="2:5" ht="12.75">
       <c r="B330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="2:5" ht="12.5">
+    <row r="331" spans="2:5" ht="12.75">
       <c r="B331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="2:5" ht="12.5">
+    <row r="332" spans="2:5" ht="12.75">
       <c r="B332" s="5"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="2:5" ht="12.5">
+    <row r="333" spans="2:5" ht="12.75">
       <c r="B333" s="5"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="2:5" ht="12.5">
+    <row r="334" spans="2:5" ht="12.75">
       <c r="B334" s="5"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="2:5" ht="12.5">
+    <row r="335" spans="2:5" ht="12.75">
       <c r="B335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="2:5" ht="12.5">
+    <row r="336" spans="2:5" ht="12.75">
       <c r="B336" s="5"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="2:5" ht="12.5">
+    <row r="337" spans="2:5" ht="12.75">
       <c r="B337" s="5"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="2:5" ht="12.5">
+    <row r="338" spans="2:5" ht="12.75">
       <c r="B338" s="5"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="2:5" ht="12.5">
+    <row r="339" spans="2:5" ht="12.75">
       <c r="B339" s="5"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="2:5" ht="12.5">
+    <row r="340" spans="2:5" ht="12.75">
       <c r="B340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="2:5" ht="12.5">
+    <row r="341" spans="2:5" ht="12.75">
       <c r="B341" s="5"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="2:5" ht="12.5">
+    <row r="342" spans="2:5" ht="12.75">
       <c r="B342" s="5"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="2:5" ht="12.5">
+    <row r="343" spans="2:5" ht="12.75">
       <c r="B343" s="5"/>
       <c r="E343" s="5"/>
     </row>
-    <row r="344" spans="2:5" ht="12.5">
+    <row r="344" spans="2:5" ht="12.75">
       <c r="B344" s="5"/>
       <c r="E344" s="5"/>
     </row>
-    <row r="345" spans="2:5" ht="12.5">
+    <row r="345" spans="2:5" ht="12.75">
       <c r="B345" s="5"/>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="2:5" ht="12.5">
+    <row r="346" spans="2:5" ht="12.75">
       <c r="B346" s="5"/>
       <c r="E346" s="5"/>
     </row>
-    <row r="347" spans="2:5" ht="12.5">
+    <row r="347" spans="2:5" ht="12.75">
       <c r="B347" s="5"/>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="2:5" ht="12.5">
+    <row r="348" spans="2:5" ht="12.75">
       <c r="B348" s="5"/>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" spans="2:5" ht="12.5">
+    <row r="349" spans="2:5" ht="12.75">
       <c r="B349" s="5"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="2:5" ht="12.5">
+    <row r="350" spans="2:5" ht="12.75">
       <c r="B350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="2:5" ht="12.5">
+    <row r="351" spans="2:5" ht="12.75">
       <c r="B351" s="5"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="2:5" ht="12.5">
+    <row r="352" spans="2:5" ht="12.75">
       <c r="B352" s="5"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="2:5" ht="12.5">
+    <row r="353" spans="2:5" ht="12.75">
       <c r="B353" s="5"/>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="2:5" ht="12.5">
+    <row r="354" spans="2:5" ht="12.75">
       <c r="B354" s="5"/>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="2:5" ht="12.5">
+    <row r="355" spans="2:5" ht="12.75">
       <c r="B355" s="5"/>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" spans="2:5" ht="12.5">
+    <row r="356" spans="2:5" ht="12.75">
       <c r="B356" s="5"/>
       <c r="E356" s="5"/>
     </row>
-    <row r="357" spans="2:5" ht="12.5">
+    <row r="357" spans="2:5" ht="12.75">
       <c r="B357" s="5"/>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" spans="2:5" ht="12.5">
+    <row r="358" spans="2:5" ht="12.75">
       <c r="B358" s="5"/>
       <c r="E358" s="5"/>
     </row>
-    <row r="359" spans="2:5" ht="12.5">
+    <row r="359" spans="2:5" ht="12.75">
       <c r="B359" s="5"/>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" spans="2:5" ht="12.5">
+    <row r="360" spans="2:5" ht="12.75">
       <c r="B360" s="5"/>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" spans="2:5" ht="12.5">
+    <row r="361" spans="2:5" ht="12.75">
       <c r="B361" s="5"/>
       <c r="E361" s="5"/>
     </row>
-    <row r="362" spans="2:5" ht="12.5">
+    <row r="362" spans="2:5" ht="12.75">
       <c r="B362" s="5"/>
       <c r="E362" s="5"/>
     </row>
-    <row r="363" spans="2:5" ht="12.5">
+    <row r="363" spans="2:5" ht="12.75">
       <c r="B363" s="5"/>
       <c r="E363" s="5"/>
     </row>
-    <row r="364" spans="2:5" ht="12.5">
+    <row r="364" spans="2:5" ht="12.75">
       <c r="B364" s="5"/>
       <c r="E364" s="5"/>
     </row>
-    <row r="365" spans="2:5" ht="12.5">
+    <row r="365" spans="2:5" ht="12.75">
       <c r="B365" s="5"/>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" spans="2:5" ht="12.5">
+    <row r="366" spans="2:5" ht="12.75">
       <c r="B366" s="5"/>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" spans="2:5" ht="12.5">
+    <row r="367" spans="2:5" ht="12.75">
       <c r="B367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="2:5" ht="12.5">
+    <row r="368" spans="2:5" ht="12.75">
       <c r="B368" s="5"/>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" spans="2:5" ht="12.5">
+    <row r="369" spans="2:5" ht="12.75">
       <c r="B369" s="5"/>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" spans="2:5" ht="12.5">
+    <row r="370" spans="2:5" ht="12.75">
       <c r="B370" s="5"/>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" spans="2:5" ht="12.5">
+    <row r="371" spans="2:5" ht="12.75">
       <c r="B371" s="5"/>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="2:5" ht="12.5">
+    <row r="372" spans="2:5" ht="12.75">
       <c r="B372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="2:5" ht="12.5">
+    <row r="373" spans="2:5" ht="12.75">
       <c r="B373" s="5"/>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="2:5" ht="12.5">
+    <row r="374" spans="2:5" ht="12.75">
       <c r="B374" s="5"/>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="2:5" ht="12.5">
+    <row r="375" spans="2:5" ht="12.75">
       <c r="B375" s="5"/>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" spans="2:5" ht="12.5">
+    <row r="376" spans="2:5" ht="12.75">
       <c r="B376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="2:5" ht="12.5">
+    <row r="377" spans="2:5" ht="12.75">
       <c r="B377" s="5"/>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="2:5" ht="12.5">
+    <row r="378" spans="2:5" ht="12.75">
       <c r="B378" s="5"/>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" spans="2:5" ht="12.5">
+    <row r="379" spans="2:5" ht="12.75">
       <c r="B379" s="5"/>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" spans="2:5" ht="12.5">
+    <row r="380" spans="2:5" ht="12.75">
       <c r="B380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="2:5" ht="12.5">
+    <row r="381" spans="2:5" ht="12.75">
       <c r="B381" s="5"/>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="2:5" ht="12.5">
+    <row r="382" spans="2:5" ht="12.75">
       <c r="B382" s="5"/>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="2:5" ht="12.5">
+    <row r="383" spans="2:5" ht="12.75">
       <c r="B383" s="5"/>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" spans="2:5" ht="12.5">
+    <row r="384" spans="2:5" ht="12.75">
       <c r="B384" s="5"/>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" spans="2:5" ht="12.5">
+    <row r="385" spans="2:5" ht="12.75">
       <c r="B385" s="5"/>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="2:5" ht="12.5">
+    <row r="386" spans="2:5" ht="12.75">
       <c r="B386" s="5"/>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="2:5" ht="12.5">
+    <row r="387" spans="2:5" ht="12.75">
       <c r="B387" s="5"/>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="2:5" ht="12.5">
+    <row r="388" spans="2:5" ht="12.75">
       <c r="B388" s="5"/>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="2:5" ht="12.5">
+    <row r="389" spans="2:5" ht="12.75">
       <c r="B389" s="5"/>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="2:5" ht="12.5">
+    <row r="390" spans="2:5" ht="12.75">
       <c r="B390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="2:5" ht="12.5">
+    <row r="391" spans="2:5" ht="12.75">
       <c r="B391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="2:5" ht="12.5">
+    <row r="392" spans="2:5" ht="12.75">
       <c r="B392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="2:5" ht="12.5">
+    <row r="393" spans="2:5" ht="12.75">
       <c r="B393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="2:5" ht="12.5">
+    <row r="394" spans="2:5" ht="12.75">
       <c r="B394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="2:5" ht="12.5">
+    <row r="395" spans="2:5" ht="12.75">
       <c r="B395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="2:5" ht="12.5">
+    <row r="396" spans="2:5" ht="12.75">
       <c r="B396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="2:5" ht="12.5">
+    <row r="397" spans="2:5" ht="12.75">
       <c r="B397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="2:5" ht="12.5">
+    <row r="398" spans="2:5" ht="12.75">
       <c r="B398" s="5"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="2:5" ht="12.5">
+    <row r="399" spans="2:5" ht="12.75">
       <c r="B399" s="5"/>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="2:5" ht="12.5">
+    <row r="400" spans="2:5" ht="12.75">
       <c r="B400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="2:5" ht="12.5">
+    <row r="401" spans="2:5" ht="12.75">
       <c r="B401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="2:5" ht="12.5">
+    <row r="402" spans="2:5" ht="12.75">
       <c r="B402" s="5"/>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" spans="2:5" ht="12.5">
+    <row r="403" spans="2:5" ht="12.75">
       <c r="B403" s="5"/>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" spans="2:5" ht="12.5">
+    <row r="404" spans="2:5" ht="12.75">
       <c r="B404" s="5"/>
       <c r="E404" s="5"/>
     </row>
-    <row r="405" spans="2:5" ht="12.5">
+    <row r="405" spans="2:5" ht="12.75">
       <c r="B405" s="5"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="2:5" ht="12.5">
+    <row r="406" spans="2:5" ht="12.75">
       <c r="B406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="2:5" ht="12.5">
+    <row r="407" spans="2:5" ht="12.75">
       <c r="B407" s="5"/>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" spans="2:5" ht="12.5">
+    <row r="408" spans="2:5" ht="12.75">
       <c r="B408" s="5"/>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" spans="2:5" ht="12.5">
+    <row r="409" spans="2:5" ht="12.75">
       <c r="B409" s="5"/>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" spans="2:5" ht="12.5">
+    <row r="410" spans="2:5" ht="12.75">
       <c r="B410" s="5"/>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" spans="2:5" ht="12.5">
+    <row r="411" spans="2:5" ht="12.75">
       <c r="B411" s="5"/>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" spans="2:5" ht="12.5">
+    <row r="412" spans="2:5" ht="12.75">
       <c r="B412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="2:5" ht="12.5">
+    <row r="413" spans="2:5" ht="12.75">
       <c r="B413" s="5"/>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" spans="2:5" ht="12.5">
+    <row r="414" spans="2:5" ht="12.75">
       <c r="B414" s="5"/>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" spans="2:5" ht="12.5">
+    <row r="415" spans="2:5" ht="12.75">
       <c r="B415" s="5"/>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="2:5" ht="12.5">
+    <row r="416" spans="2:5" ht="12.75">
       <c r="B416" s="5"/>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" spans="2:5" ht="12.5">
+    <row r="417" spans="2:5" ht="12.75">
       <c r="B417" s="5"/>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" spans="2:5" ht="12.5">
+    <row r="418" spans="2:5" ht="12.75">
       <c r="B418" s="5"/>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" spans="2:5" ht="12.5">
+    <row r="419" spans="2:5" ht="12.75">
       <c r="B419" s="5"/>
       <c r="E419" s="5"/>
     </row>
-    <row r="420" spans="2:5" ht="12.5">
+    <row r="420" spans="2:5" ht="12.75">
       <c r="B420" s="5"/>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="2:5" ht="12.5">
+    <row r="421" spans="2:5" ht="12.75">
       <c r="B421" s="5"/>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" spans="2:5" ht="12.5">
+    <row r="422" spans="2:5" ht="12.75">
       <c r="B422" s="5"/>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" spans="2:5" ht="12.5">
+    <row r="423" spans="2:5" ht="12.75">
       <c r="B423" s="5"/>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" spans="2:5" ht="12.5">
+    <row r="424" spans="2:5" ht="12.75">
       <c r="B424" s="5"/>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" spans="2:5" ht="12.5">
+    <row r="425" spans="2:5" ht="12.75">
       <c r="B425" s="5"/>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" spans="2:5" ht="12.5">
+    <row r="426" spans="2:5" ht="12.75">
       <c r="B426" s="5"/>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" spans="2:5" ht="12.5">
+    <row r="427" spans="2:5" ht="12.75">
       <c r="B427" s="5"/>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" spans="2:5" ht="12.5">
+    <row r="428" spans="2:5" ht="12.75">
       <c r="B428" s="5"/>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" spans="2:5" ht="12.5">
+    <row r="429" spans="2:5" ht="12.75">
       <c r="B429" s="5"/>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" spans="2:5" ht="12.5">
+    <row r="430" spans="2:5" ht="12.75">
       <c r="B430" s="5"/>
       <c r="E430" s="5"/>
     </row>
-    <row r="431" spans="2:5" ht="12.5">
+    <row r="431" spans="2:5" ht="12.75">
       <c r="B431" s="5"/>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" spans="2:5" ht="12.5">
+    <row r="432" spans="2:5" ht="12.75">
       <c r="B432" s="5"/>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="2:5" ht="12.5">
+    <row r="433" spans="2:5" ht="12.75">
       <c r="B433" s="5"/>
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="2:5" ht="12.5">
+    <row r="434" spans="2:5" ht="12.75">
       <c r="B434" s="5"/>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="2:5" ht="12.5">
+    <row r="435" spans="2:5" ht="12.75">
       <c r="B435" s="5"/>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="2:5" ht="12.5">
+    <row r="436" spans="2:5" ht="12.75">
       <c r="B436" s="5"/>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="2:5" ht="12.5">
+    <row r="437" spans="2:5" ht="12.75">
       <c r="B437" s="5"/>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="2:5" ht="12.5">
+    <row r="438" spans="2:5" ht="12.75">
       <c r="B438" s="5"/>
       <c r="E438" s="5"/>
     </row>
-    <row r="439" spans="2:5" ht="12.5">
+    <row r="439" spans="2:5" ht="12.75">
       <c r="B439" s="5"/>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" spans="2:5" ht="12.5">
+    <row r="440" spans="2:5" ht="12.75">
       <c r="B440" s="5"/>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" spans="2:5" ht="12.5">
+    <row r="441" spans="2:5" ht="12.75">
       <c r="B441" s="5"/>
       <c r="E441" s="5"/>
     </row>
-    <row r="442" spans="2:5" ht="12.5">
+    <row r="442" spans="2:5" ht="12.75">
       <c r="B442" s="5"/>
       <c r="E442" s="5"/>
     </row>
-    <row r="443" spans="2:5" ht="12.5">
+    <row r="443" spans="2:5" ht="12.75">
       <c r="B443" s="5"/>
       <c r="E443" s="5"/>
     </row>
-    <row r="444" spans="2:5" ht="12.5">
+    <row r="444" spans="2:5" ht="12.75">
       <c r="B444" s="5"/>
       <c r="E444" s="5"/>
     </row>
-    <row r="445" spans="2:5" ht="12.5">
+    <row r="445" spans="2:5" ht="12.75">
       <c r="B445" s="5"/>
       <c r="E445" s="5"/>
     </row>
-    <row r="446" spans="2:5" ht="12.5">
+    <row r="446" spans="2:5" ht="12.75">
       <c r="B446" s="5"/>
       <c r="E446" s="5"/>
     </row>
-    <row r="447" spans="2:5" ht="12.5">
+    <row r="447" spans="2:5" ht="12.75">
       <c r="B447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" spans="2:5" ht="12.5">
+    <row r="448" spans="2:5" ht="12.75">
       <c r="B448" s="5"/>
       <c r="E448" s="5"/>
     </row>
-    <row r="449" spans="2:5" ht="12.5">
+    <row r="449" spans="2:5" ht="12.75">
       <c r="B449" s="5"/>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" spans="2:5" ht="12.5">
+    <row r="450" spans="2:5" ht="12.75">
       <c r="B450" s="5"/>
       <c r="E450" s="5"/>
     </row>
-    <row r="451" spans="2:5" ht="12.5">
+    <row r="451" spans="2:5" ht="12.75">
       <c r="B451" s="5"/>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" spans="2:5" ht="12.5">
+    <row r="452" spans="2:5" ht="12.75">
       <c r="B452" s="5"/>
       <c r="E452" s="5"/>
     </row>
-    <row r="453" spans="2:5" ht="12.5">
+    <row r="453" spans="2:5" ht="12.75">
       <c r="B453" s="5"/>
       <c r="E453" s="5"/>
     </row>
-    <row r="454" spans="2:5" ht="12.5">
+    <row r="454" spans="2:5" ht="12.75">
       <c r="B454" s="5"/>
       <c r="E454" s="5"/>
     </row>
-    <row r="455" spans="2:5" ht="12.5">
+    <row r="455" spans="2:5" ht="12.75">
       <c r="B455" s="5"/>
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="2:5" ht="12.5">
+    <row r="456" spans="2:5" ht="12.75">
       <c r="B456" s="5"/>
       <c r="E456" s="5"/>
     </row>
-    <row r="457" spans="2:5" ht="12.5">
+    <row r="457" spans="2:5" ht="12.75">
       <c r="B457" s="5"/>
       <c r="E457" s="5"/>
     </row>
-    <row r="458" spans="2:5" ht="12.5">
+    <row r="458" spans="2:5" ht="12.75">
       <c r="B458" s="5"/>
       <c r="E458" s="5"/>
     </row>
-    <row r="459" spans="2:5" ht="12.5">
+    <row r="459" spans="2:5" ht="12.75">
       <c r="B459" s="5"/>
       <c r="E459" s="5"/>
     </row>
-    <row r="460" spans="2:5" ht="12.5">
+    <row r="460" spans="2:5" ht="12.75">
       <c r="B460" s="5"/>
       <c r="E460" s="5"/>
     </row>
-    <row r="461" spans="2:5" ht="12.5">
+    <row r="461" spans="2:5" ht="12.75">
       <c r="B461" s="5"/>
       <c r="E461" s="5"/>
     </row>
-    <row r="462" spans="2:5" ht="12.5">
+    <row r="462" spans="2:5" ht="12.75">
       <c r="B462" s="5"/>
       <c r="E462" s="5"/>
     </row>
-    <row r="463" spans="2:5" ht="12.5">
+    <row r="463" spans="2:5" ht="12.75">
       <c r="B463" s="5"/>
       <c r="E463" s="5"/>
     </row>
-    <row r="464" spans="2:5" ht="12.5">
+    <row r="464" spans="2:5" ht="12.75">
       <c r="B464" s="5"/>
       <c r="E464" s="5"/>
     </row>
-    <row r="465" spans="2:5" ht="12.5">
+    <row r="465" spans="2:5" ht="12.75">
       <c r="B465" s="5"/>
       <c r="E465" s="5"/>
     </row>
-    <row r="466" spans="2:5" ht="12.5">
+    <row r="466" spans="2:5" ht="12.75">
       <c r="B466" s="5"/>
       <c r="E466" s="5"/>
     </row>
-    <row r="467" spans="2:5" ht="12.5">
+    <row r="467" spans="2:5" ht="12.75">
       <c r="B467" s="5"/>
       <c r="E467" s="5"/>
     </row>
-    <row r="468" spans="2:5" ht="12.5">
+    <row r="468" spans="2:5" ht="12.75">
       <c r="B468" s="5"/>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" spans="2:5" ht="12.5">
+    <row r="469" spans="2:5" ht="12.75">
       <c r="B469" s="5"/>
       <c r="E469" s="5"/>
     </row>
-    <row r="470" spans="2:5" ht="12.5">
+    <row r="470" spans="2:5" ht="12.75">
       <c r="B470" s="5"/>
       <c r="E470" s="5"/>
     </row>
-    <row r="471" spans="2:5" ht="12.5">
+    <row r="471" spans="2:5" ht="12.75">
       <c r="B471" s="5"/>
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="2:5" ht="12.5">
+    <row r="472" spans="2:5" ht="12.75">
       <c r="B472" s="5"/>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="2:5" ht="12.5">
+    <row r="473" spans="2:5" ht="12.75">
       <c r="B473" s="5"/>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="2:5" ht="12.5">
+    <row r="474" spans="2:5" ht="12.75">
       <c r="B474" s="5"/>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="2:5" ht="12.5">
+    <row r="475" spans="2:5" ht="12.75">
       <c r="B475" s="5"/>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="2:5" ht="12.5">
+    <row r="476" spans="2:5" ht="12.75">
       <c r="B476" s="5"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" spans="2:5" ht="12.5">
+    <row r="477" spans="2:5" ht="12.75">
       <c r="B477" s="5"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="2:5" ht="12.5">
+    <row r="478" spans="2:5" ht="12.75">
       <c r="B478" s="5"/>
       <c r="E478" s="5"/>
     </row>
-    <row r="479" spans="2:5" ht="12.5">
+    <row r="479" spans="2:5" ht="12.75">
       <c r="B479" s="5"/>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" spans="2:5" ht="12.5">
+    <row r="480" spans="2:5" ht="12.75">
       <c r="B480" s="5"/>
       <c r="E480" s="5"/>
     </row>
-    <row r="481" spans="2:5" ht="12.5">
+    <row r="481" spans="2:5" ht="12.75">
       <c r="B481" s="5"/>
       <c r="E481" s="5"/>
     </row>
-    <row r="482" spans="2:5" ht="12.5">
+    <row r="482" spans="2:5" ht="12.75">
       <c r="B482" s="5"/>
       <c r="E482" s="5"/>
     </row>
-    <row r="483" spans="2:5" ht="12.5">
+    <row r="483" spans="2:5" ht="12.75">
       <c r="B483" s="5"/>
       <c r="E483" s="5"/>
     </row>
-    <row r="484" spans="2:5" ht="12.5">
+    <row r="484" spans="2:5" ht="12.75">
       <c r="B484" s="5"/>
       <c r="E484" s="5"/>
     </row>
-    <row r="485" spans="2:5" ht="12.5">
+    <row r="485" spans="2:5" ht="12.75">
       <c r="B485" s="5"/>
       <c r="E485" s="5"/>
     </row>
-    <row r="486" spans="2:5" ht="12.5">
+    <row r="486" spans="2:5" ht="12.75">
       <c r="B486" s="5"/>
       <c r="E486" s="5"/>
     </row>
-    <row r="487" spans="2:5" ht="12.5">
+    <row r="487" spans="2:5" ht="12.75">
       <c r="B487" s="5"/>
       <c r="E487" s="5"/>
     </row>
-    <row r="488" spans="2:5" ht="12.5">
+    <row r="488" spans="2:5" ht="12.75">
       <c r="B488" s="5"/>
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="2:5" ht="12.5">
+    <row r="489" spans="2:5" ht="12.75">
       <c r="B489" s="5"/>
       <c r="E489" s="5"/>
     </row>
-    <row r="490" spans="2:5" ht="12.5">
+    <row r="490" spans="2:5" ht="12.75">
       <c r="B490" s="5"/>
       <c r="E490" s="5"/>
     </row>
-    <row r="491" spans="2:5" ht="12.5">
+    <row r="491" spans="2:5" ht="12.75">
       <c r="B491" s="5"/>
       <c r="E491" s="5"/>
     </row>
-    <row r="492" spans="2:5" ht="12.5">
+    <row r="492" spans="2:5" ht="12.75">
       <c r="B492" s="5"/>
       <c r="E492" s="5"/>
     </row>
-    <row r="493" spans="2:5" ht="12.5">
+    <row r="493" spans="2:5" ht="12.75">
       <c r="B493" s="5"/>
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="2:5" ht="12.5">
+    <row r="494" spans="2:5" ht="12.75">
       <c r="B494" s="5"/>
       <c r="E494" s="5"/>
     </row>
-    <row r="495" spans="2:5" ht="12.5">
+    <row r="495" spans="2:5" ht="12.75">
       <c r="B495" s="5"/>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="2:5" ht="12.5">
+    <row r="496" spans="2:5" ht="12.75">
       <c r="B496" s="5"/>
       <c r="E496" s="5"/>
     </row>
-    <row r="497" spans="2:5" ht="12.5">
+    <row r="497" spans="2:5" ht="12.75">
       <c r="B497" s="5"/>
       <c r="E497" s="5"/>
     </row>
-    <row r="498" spans="2:5" ht="12.5">
+    <row r="498" spans="2:5" ht="12.75">
       <c r="B498" s="5"/>
       <c r="E498" s="5"/>
     </row>
-    <row r="499" spans="2:5" ht="12.5">
+    <row r="499" spans="2:5" ht="12.75">
       <c r="B499" s="5"/>
       <c r="E499" s="5"/>
     </row>
-    <row r="500" spans="2:5" ht="12.5">
+    <row r="500" spans="2:5" ht="12.75">
       <c r="B500" s="5"/>
       <c r="E500" s="5"/>
     </row>
-    <row r="501" spans="2:5" ht="12.5">
+    <row r="501" spans="2:5" ht="12.75">
       <c r="B501" s="5"/>
       <c r="E501" s="5"/>
     </row>
-    <row r="502" spans="2:5" ht="12.5">
+    <row r="502" spans="2:5" ht="12.75">
       <c r="B502" s="5"/>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="2:5" ht="12.5">
+    <row r="503" spans="2:5" ht="12.75">
       <c r="B503" s="5"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="2:5" ht="12.5">
+    <row r="504" spans="2:5" ht="12.75">
       <c r="B504" s="5"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="2:5" ht="12.5">
+    <row r="505" spans="2:5" ht="12.75">
       <c r="B505" s="5"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="2:5" ht="12.5">
+    <row r="506" spans="2:5" ht="12.75">
       <c r="B506" s="5"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="2:5" ht="12.5">
+    <row r="507" spans="2:5" ht="12.75">
       <c r="B507" s="5"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="2:5" ht="12.5">
+    <row r="508" spans="2:5" ht="12.75">
       <c r="B508" s="5"/>
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="2:5" ht="12.5">
+    <row r="509" spans="2:5" ht="12.75">
       <c r="B509" s="5"/>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="2:5" ht="12.5">
+    <row r="510" spans="2:5" ht="12.75">
       <c r="B510" s="5"/>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="2:5" ht="12.5">
+    <row r="511" spans="2:5" ht="12.75">
       <c r="B511" s="5"/>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="2:5" ht="12.5">
+    <row r="512" spans="2:5" ht="12.75">
       <c r="B512" s="5"/>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="2:5" ht="12.5">
+    <row r="513" spans="2:5" ht="12.75">
       <c r="B513" s="5"/>
       <c r="E513" s="5"/>
     </row>
-    <row r="514" spans="2:5" ht="12.5">
+    <row r="514" spans="2:5" ht="12.75">
       <c r="B514" s="5"/>
       <c r="E514" s="5"/>
     </row>
-    <row r="515" spans="2:5" ht="12.5">
+    <row r="515" spans="2:5" ht="12.75">
       <c r="B515" s="5"/>
       <c r="E515" s="5"/>
     </row>
-    <row r="516" spans="2:5" ht="12.5">
+    <row r="516" spans="2:5" ht="12.75">
       <c r="B516" s="5"/>
       <c r="E516" s="5"/>
     </row>
-    <row r="517" spans="2:5" ht="12.5">
+    <row r="517" spans="2:5" ht="12.75">
       <c r="B517" s="5"/>
       <c r="E517" s="5"/>
     </row>
-    <row r="518" spans="2:5" ht="12.5">
+    <row r="518" spans="2:5" ht="12.75">
       <c r="B518" s="5"/>
       <c r="E518" s="5"/>
     </row>
-    <row r="519" spans="2:5" ht="12.5">
+    <row r="519" spans="2:5" ht="12.75">
       <c r="B519" s="5"/>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" spans="2:5" ht="12.5">
+    <row r="520" spans="2:5" ht="12.75">
       <c r="B520" s="5"/>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" spans="2:5" ht="12.5">
+    <row r="521" spans="2:5" ht="12.75">
       <c r="B521" s="5"/>
       <c r="E521" s="5"/>
     </row>
-    <row r="522" spans="2:5" ht="12.5">
+    <row r="522" spans="2:5" ht="12.75">
       <c r="B522" s="5"/>
       <c r="E522" s="5"/>
     </row>
-    <row r="523" spans="2:5" ht="12.5">
+    <row r="523" spans="2:5" ht="12.75">
       <c r="B523" s="5"/>
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="2:5" ht="12.5">
+    <row r="524" spans="2:5" ht="12.75">
       <c r="B524" s="5"/>
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="2:5" ht="12.5">
+    <row r="525" spans="2:5" ht="12.75">
       <c r="B525" s="5"/>
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="2:5" ht="12.5">
+    <row r="526" spans="2:5" ht="12.75">
       <c r="B526" s="5"/>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="2:5" ht="12.5">
+    <row r="527" spans="2:5" ht="12.75">
       <c r="B527" s="5"/>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="2:5" ht="12.5">
+    <row r="528" spans="2:5" ht="12.75">
       <c r="B528" s="5"/>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="2:5" ht="12.5">
+    <row r="529" spans="2:5" ht="12.75">
       <c r="B529" s="5"/>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" spans="2:5" ht="12.5">
+    <row r="530" spans="2:5" ht="12.75">
       <c r="B530" s="5"/>
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="2:5" ht="12.5">
+    <row r="531" spans="2:5" ht="12.75">
       <c r="B531" s="5"/>
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="2:5" ht="12.5">
+    <row r="532" spans="2:5" ht="12.75">
       <c r="B532" s="5"/>
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="2:5" ht="12.5">
+    <row r="533" spans="2:5" ht="12.75">
       <c r="B533" s="5"/>
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="2:5" ht="12.5">
+    <row r="534" spans="2:5" ht="12.75">
       <c r="B534" s="5"/>
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="2:5" ht="12.5">
+    <row r="535" spans="2:5" ht="12.75">
       <c r="B535" s="5"/>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="2:5" ht="12.5">
+    <row r="536" spans="2:5" ht="12.75">
       <c r="B536" s="5"/>
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="2:5" ht="12.5">
+    <row r="537" spans="2:5" ht="12.75">
       <c r="B537" s="5"/>
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="2:5" ht="12.5">
+    <row r="538" spans="2:5" ht="12.75">
       <c r="B538" s="5"/>
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="2:5" ht="12.5">
+    <row r="539" spans="2:5" ht="12.75">
       <c r="B539" s="5"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="2:5" ht="12.5">
+    <row r="540" spans="2:5" ht="12.75">
       <c r="B540" s="5"/>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="2:5" ht="12.5">
+    <row r="541" spans="2:5" ht="12.75">
       <c r="B541" s="5"/>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="2:5" ht="12.5">
+    <row r="542" spans="2:5" ht="12.75">
       <c r="B542" s="5"/>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="2:5" ht="12.5">
+    <row r="543" spans="2:5" ht="12.75">
       <c r="B543" s="5"/>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="2:5" ht="12.5">
+    <row r="544" spans="2:5" ht="12.75">
       <c r="B544" s="5"/>
       <c r="E544" s="5"/>
     </row>
-    <row r="545" spans="2:5" ht="12.5">
+    <row r="545" spans="2:5" ht="12.75">
       <c r="B545" s="5"/>
       <c r="E545" s="5"/>
     </row>
-    <row r="546" spans="2:5" ht="12.5">
+    <row r="546" spans="2:5" ht="12.75">
       <c r="B546" s="5"/>
       <c r="E546" s="5"/>
     </row>
-    <row r="547" spans="2:5" ht="12.5">
+    <row r="547" spans="2:5" ht="12.75">
       <c r="B547" s="5"/>
       <c r="E547" s="5"/>
     </row>
-    <row r="548" spans="2:5" ht="12.5">
+    <row r="548" spans="2:5" ht="12.75">
       <c r="B548" s="5"/>
       <c r="E548" s="5"/>
     </row>
-    <row r="549" spans="2:5" ht="12.5">
+    <row r="549" spans="2:5" ht="12.75">
       <c r="B549" s="5"/>
       <c r="E549" s="5"/>
     </row>
-    <row r="550" spans="2:5" ht="12.5">
+    <row r="550" spans="2:5" ht="12.75">
       <c r="B550" s="5"/>
       <c r="E550" s="5"/>
     </row>
-    <row r="551" spans="2:5" ht="12.5">
+    <row r="551" spans="2:5" ht="12.75">
       <c r="B551" s="5"/>
       <c r="E551" s="5"/>
     </row>
-    <row r="552" spans="2:5" ht="12.5">
+    <row r="552" spans="2:5" ht="12.75">
       <c r="B552" s="5"/>
       <c r="E552" s="5"/>
     </row>
-    <row r="553" spans="2:5" ht="12.5">
+    <row r="553" spans="2:5" ht="12.75">
       <c r="B553" s="5"/>
       <c r="E553" s="5"/>
     </row>
-    <row r="554" spans="2:5" ht="12.5">
+    <row r="554" spans="2:5" ht="12.75">
       <c r="B554" s="5"/>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="2:5" ht="12.5">
+    <row r="555" spans="2:5" ht="12.75">
       <c r="B555" s="5"/>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="2:5" ht="12.5">
+    <row r="556" spans="2:5" ht="12.75">
       <c r="B556" s="5"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="2:5" ht="12.5">
+    <row r="557" spans="2:5" ht="12.75">
       <c r="B557" s="5"/>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="2:5" ht="12.5">
+    <row r="558" spans="2:5" ht="12.75">
       <c r="B558" s="5"/>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="2:5" ht="12.5">
+    <row r="559" spans="2:5" ht="12.75">
       <c r="B559" s="5"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="2:5" ht="12.5">
+    <row r="560" spans="2:5" ht="12.75">
       <c r="B560" s="5"/>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="2:5" ht="12.5">
+    <row r="561" spans="2:5" ht="12.75">
       <c r="B561" s="5"/>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="2:5" ht="12.5">
+    <row r="562" spans="2:5" ht="12.75">
       <c r="B562" s="5"/>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="2:5" ht="12.5">
+    <row r="563" spans="2:5" ht="12.75">
       <c r="B563" s="5"/>
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="2:5" ht="12.5">
+    <row r="564" spans="2:5" ht="12.75">
       <c r="B564" s="5"/>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="2:5" ht="12.5">
+    <row r="565" spans="2:5" ht="12.75">
       <c r="B565" s="5"/>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="2:5" ht="12.5">
+    <row r="566" spans="2:5" ht="12.75">
       <c r="B566" s="5"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="2:5" ht="12.5">
+    <row r="567" spans="2:5" ht="12.75">
       <c r="B567" s="5"/>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="2:5" ht="12.5">
+    <row r="568" spans="2:5" ht="12.75">
       <c r="B568" s="5"/>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="2:5" ht="12.5">
+    <row r="569" spans="2:5" ht="12.75">
       <c r="B569" s="5"/>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="2:5" ht="12.5">
+    <row r="570" spans="2:5" ht="12.75">
       <c r="B570" s="5"/>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="2:5" ht="12.5">
+    <row r="571" spans="2:5" ht="12.75">
       <c r="B571" s="5"/>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="2:5" ht="12.5">
+    <row r="572" spans="2:5" ht="12.75">
       <c r="B572" s="5"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="2:5" ht="12.5">
+    <row r="573" spans="2:5" ht="12.75">
       <c r="B573" s="5"/>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="2:5" ht="12.5">
+    <row r="574" spans="2:5" ht="12.75">
       <c r="B574" s="5"/>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="2:5" ht="12.5">
+    <row r="575" spans="2:5" ht="12.75">
       <c r="B575" s="5"/>
       <c r="E575" s="5"/>
     </row>
-    <row r="576" spans="2:5" ht="12.5">
+    <row r="576" spans="2:5" ht="12.75">
       <c r="B576" s="5"/>
       <c r="E576" s="5"/>
     </row>
-    <row r="577" spans="2:5" ht="12.5">
+    <row r="577" spans="2:5" ht="12.75">
       <c r="B577" s="5"/>
       <c r="E577" s="5"/>
     </row>
-    <row r="578" spans="2:5" ht="12.5">
+    <row r="578" spans="2:5" ht="12.75">
       <c r="B578" s="5"/>
       <c r="E578" s="5"/>
     </row>
-    <row r="579" spans="2:5" ht="12.5">
+    <row r="579" spans="2:5" ht="12.75">
       <c r="B579" s="5"/>
       <c r="E579" s="5"/>
     </row>
-    <row r="580" spans="2:5" ht="12.5">
+    <row r="580" spans="2:5" ht="12.75">
       <c r="B580" s="5"/>
       <c r="E580" s="5"/>
     </row>
-    <row r="581" spans="2:5" ht="12.5">
+    <row r="581" spans="2:5" ht="12.75">
       <c r="B581" s="5"/>
       <c r="E581" s="5"/>
     </row>
-    <row r="582" spans="2:5" ht="12.5">
+    <row r="582" spans="2:5" ht="12.75">
       <c r="B582" s="5"/>
       <c r="E582" s="5"/>
     </row>
-    <row r="583" spans="2:5" ht="12.5">
+    <row r="583" spans="2:5" ht="12.75">
       <c r="B583" s="5"/>
       <c r="E583" s="5"/>
     </row>
-    <row r="584" spans="2:5" ht="12.5">
+    <row r="584" spans="2:5" ht="12.75">
       <c r="B584" s="5"/>
       <c r="E584" s="5"/>
     </row>
-    <row r="585" spans="2:5" ht="12.5">
+    <row r="585" spans="2:5" ht="12.75">
       <c r="B585" s="5"/>
       <c r="E585" s="5"/>
     </row>
-    <row r="586" spans="2:5" ht="12.5">
+    <row r="586" spans="2:5" ht="12.75">
       <c r="B586" s="5"/>
       <c r="E586" s="5"/>
     </row>
-    <row r="587" spans="2:5" ht="12.5">
+    <row r="587" spans="2:5" ht="12.75">
       <c r="B587" s="5"/>
       <c r="E587" s="5"/>
     </row>
-    <row r="588" spans="2:5" ht="12.5">
+    <row r="588" spans="2:5" ht="12.75">
       <c r="B588" s="5"/>
       <c r="E588" s="5"/>
     </row>
-    <row r="589" spans="2:5" ht="12.5">
+    <row r="589" spans="2:5" ht="12.75">
       <c r="B589" s="5"/>
       <c r="E589" s="5"/>
     </row>
-    <row r="590" spans="2:5" ht="12.5">
+    <row r="590" spans="2:5" ht="12.75">
       <c r="B590" s="5"/>
       <c r="E590" s="5"/>
     </row>
-    <row r="591" spans="2:5" ht="12.5">
+    <row r="591" spans="2:5" ht="12.75">
       <c r="B591" s="5"/>
       <c r="E591" s="5"/>
     </row>
-    <row r="592" spans="2:5" ht="12.5">
+    <row r="592" spans="2:5" ht="12.75">
       <c r="B592" s="5"/>
       <c r="E592" s="5"/>
     </row>
-    <row r="593" spans="2:5" ht="12.5">
+    <row r="593" spans="2:5" ht="12.75">
       <c r="B593" s="5"/>
       <c r="E593" s="5"/>
     </row>
-    <row r="594" spans="2:5" ht="12.5">
+    <row r="594" spans="2:5" ht="12.75">
       <c r="B594" s="5"/>
       <c r="E594" s="5"/>
     </row>
-    <row r="595" spans="2:5" ht="12.5">
+    <row r="595" spans="2:5" ht="12.75">
       <c r="B595" s="5"/>
       <c r="E595" s="5"/>
     </row>
-    <row r="596" spans="2:5" ht="12.5">
+    <row r="596" spans="2:5" ht="12.75">
       <c r="B596" s="5"/>
       <c r="E596" s="5"/>
     </row>
-    <row r="597" spans="2:5" ht="12.5">
+    <row r="597" spans="2:5" ht="12.75">
       <c r="B597" s="5"/>
       <c r="E597" s="5"/>
     </row>
-    <row r="598" spans="2:5" ht="12.5">
+    <row r="598" spans="2:5" ht="12.75">
       <c r="B598" s="5"/>
       <c r="E598" s="5"/>
     </row>
-    <row r="599" spans="2:5" ht="12.5">
+    <row r="599" spans="2:5" ht="12.75">
       <c r="B599" s="5"/>
       <c r="E599" s="5"/>
     </row>
-    <row r="600" spans="2:5" ht="12.5">
+    <row r="600" spans="2:5" ht="12.75">
       <c r="B600" s="5"/>
       <c r="E600" s="5"/>
     </row>
-    <row r="601" spans="2:5" ht="12.5">
+    <row r="601" spans="2:5" ht="12.75">
       <c r="B601" s="5"/>
       <c r="E601" s="5"/>
     </row>
-    <row r="602" spans="2:5" ht="12.5">
+    <row r="602" spans="2:5" ht="12.75">
       <c r="B602" s="5"/>
       <c r="E602" s="5"/>
     </row>
-    <row r="603" spans="2:5" ht="12.5">
+    <row r="603" spans="2:5" ht="12.75">
       <c r="B603" s="5"/>
       <c r="E603" s="5"/>
     </row>
-    <row r="604" spans="2:5" ht="12.5">
+    <row r="604" spans="2:5" ht="12.75">
       <c r="B604" s="5"/>
       <c r="E604" s="5"/>
     </row>
-    <row r="605" spans="2:5" ht="12.5">
+    <row r="605" spans="2:5" ht="12.75">
       <c r="B605" s="5"/>
       <c r="E605" s="5"/>
     </row>
-    <row r="606" spans="2:5" ht="12.5">
+    <row r="606" spans="2:5" ht="12.75">
       <c r="B606" s="5"/>
       <c r="E606" s="5"/>
     </row>
-    <row r="607" spans="2:5" ht="12.5">
+    <row r="607" spans="2:5" ht="12.75">
       <c r="B607" s="5"/>
       <c r="E607" s="5"/>
     </row>
-    <row r="608" spans="2:5" ht="12.5">
+    <row r="608" spans="2:5" ht="12.75">
       <c r="B608" s="5"/>
       <c r="E608" s="5"/>
     </row>
-    <row r="609" spans="2:5" ht="12.5">
+    <row r="609" spans="2:5" ht="12.75">
       <c r="B609" s="5"/>
       <c r="E609" s="5"/>
     </row>
-    <row r="610" spans="2:5" ht="12.5">
+    <row r="610" spans="2:5" ht="12.75">
       <c r="B610" s="5"/>
       <c r="E610" s="5"/>
     </row>
-    <row r="611" spans="2:5" ht="12.5">
+    <row r="611" spans="2:5" ht="12.75">
       <c r="B611" s="5"/>
       <c r="E611" s="5"/>
     </row>
-    <row r="612" spans="2:5" ht="12.5">
+    <row r="612" spans="2:5" ht="12.75">
       <c r="B612" s="5"/>
       <c r="E612" s="5"/>
     </row>
-    <row r="613" spans="2:5" ht="12.5">
+    <row r="613" spans="2:5" ht="12.75">
       <c r="B613" s="5"/>
       <c r="E613" s="5"/>
     </row>
-    <row r="614" spans="2:5" ht="12.5">
+    <row r="614" spans="2:5" ht="12.75">
       <c r="B614" s="5"/>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" spans="2:5" ht="12.5">
+    <row r="615" spans="2:5" ht="12.75">
       <c r="B615" s="5"/>
       <c r="E615" s="5"/>
     </row>
-    <row r="616" spans="2:5" ht="12.5">
+    <row r="616" spans="2:5" ht="12.75">
       <c r="B616" s="5"/>
       <c r="E616" s="5"/>
     </row>
-    <row r="617" spans="2:5" ht="12.5">
+    <row r="617" spans="2:5" ht="12.75">
       <c r="B617" s="5"/>
       <c r="E617" s="5"/>
     </row>
-    <row r="618" spans="2:5" ht="12.5">
+    <row r="618" spans="2:5" ht="12.75">
       <c r="B618" s="5"/>
       <c r="E618" s="5"/>
     </row>
-    <row r="619" spans="2:5" ht="12.5">
+    <row r="619" spans="2:5" ht="12.75">
       <c r="B619" s="5"/>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" spans="2:5" ht="12.5">
+    <row r="620" spans="2:5" ht="12.75">
       <c r="B620" s="5"/>
       <c r="E620" s="5"/>
     </row>
-    <row r="621" spans="2:5" ht="12.5">
+    <row r="621" spans="2:5" ht="12.75">
       <c r="B621" s="5"/>
       <c r="E621" s="5"/>
     </row>
-    <row r="622" spans="2:5" ht="12.5">
+    <row r="622" spans="2:5" ht="12.75">
       <c r="B622" s="5"/>
       <c r="E622" s="5"/>
     </row>
-    <row r="623" spans="2:5" ht="12.5">
+    <row r="623" spans="2:5" ht="12.75">
       <c r="B623" s="5"/>
       <c r="E623" s="5"/>
     </row>
-    <row r="624" spans="2:5" ht="12.5">
+    <row r="624" spans="2:5" ht="12.75">
       <c r="B624" s="5"/>
       <c r="E624" s="5"/>
     </row>
-    <row r="625" spans="2:5" ht="12.5">
+    <row r="625" spans="2:5" ht="12.75">
       <c r="B625" s="5"/>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" spans="2:5" ht="12.5">
+    <row r="626" spans="2:5" ht="12.75">
       <c r="B626" s="5"/>
       <c r="E626" s="5"/>
     </row>
-    <row r="627" spans="2:5" ht="12.5">
+    <row r="627" spans="2:5" ht="12.75">
       <c r="B627" s="5"/>
       <c r="E627" s="5"/>
     </row>
-    <row r="628" spans="2:5" ht="12.5">
+    <row r="628" spans="2:5" ht="12.75">
       <c r="B628" s="5"/>
       <c r="E628" s="5"/>
     </row>
-    <row r="629" spans="2:5" ht="12.5">
+    <row r="629" spans="2:5" ht="12.75">
       <c r="B629" s="5"/>
       <c r="E629" s="5"/>
     </row>
-    <row r="630" spans="2:5" ht="12.5">
+    <row r="630" spans="2:5" ht="12.75">
       <c r="B630" s="5"/>
       <c r="E630" s="5"/>
     </row>
-    <row r="631" spans="2:5" ht="12.5">
+    <row r="631" spans="2:5" ht="12.75">
       <c r="B631" s="5"/>
       <c r="E631" s="5"/>
     </row>
-    <row r="632" spans="2:5" ht="12.5">
+    <row r="632" spans="2:5" ht="12.75">
       <c r="B632" s="5"/>
       <c r="E632" s="5"/>
     </row>
-    <row r="633" spans="2:5" ht="12.5">
+    <row r="633" spans="2:5" ht="12.75">
       <c r="B633" s="5"/>
       <c r="E633" s="5"/>
     </row>
-    <row r="634" spans="2:5" ht="12.5">
+    <row r="634" spans="2:5" ht="12.75">
       <c r="B634" s="5"/>
       <c r="E634" s="5"/>
     </row>
-    <row r="635" spans="2:5" ht="12.5">
+    <row r="635" spans="2:5" ht="12.75">
       <c r="B635" s="5"/>
       <c r="E635" s="5"/>
     </row>
-    <row r="636" spans="2:5" ht="12.5">
+    <row r="636" spans="2:5" ht="12.75">
       <c r="B636" s="5"/>
       <c r="E636" s="5"/>
     </row>
-    <row r="637" spans="2:5" ht="12.5">
+    <row r="637" spans="2:5" ht="12.75">
       <c r="B637" s="5"/>
       <c r="E637" s="5"/>
     </row>
-    <row r="638" spans="2:5" ht="12.5">
+    <row r="638" spans="2:5" ht="12.75">
       <c r="B638" s="5"/>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" spans="2:5" ht="12.5">
+    <row r="639" spans="2:5" ht="12.75">
       <c r="B639" s="5"/>
       <c r="E639" s="5"/>
     </row>
-    <row r="640" spans="2:5" ht="12.5">
+    <row r="640" spans="2:5" ht="12.75">
       <c r="B640" s="5"/>
       <c r="E640" s="5"/>
     </row>
-    <row r="641" spans="2:5" ht="12.5">
+    <row r="641" spans="2:5" ht="12.75">
       <c r="B641" s="5"/>
       <c r="E641" s="5"/>
     </row>
-    <row r="642" spans="2:5" ht="12.5">
+    <row r="642" spans="2:5" ht="12.75">
       <c r="B642" s="5"/>
       <c r="E642" s="5"/>
     </row>
-    <row r="643" spans="2:5" ht="12.5">
+    <row r="643" spans="2:5" ht="12.75">
       <c r="B643" s="5"/>
       <c r="E643" s="5"/>
     </row>
-    <row r="644" spans="2:5" ht="12.5">
+    <row r="644" spans="2:5" ht="12.75">
       <c r="B644" s="5"/>
       <c r="E644" s="5"/>
     </row>
-    <row r="645" spans="2:5" ht="12.5">
+    <row r="645" spans="2:5" ht="12.75">
       <c r="B645" s="5"/>
       <c r="E645" s="5"/>
     </row>
-    <row r="646" spans="2:5" ht="12.5">
+    <row r="646" spans="2:5" ht="12.75">
       <c r="B646" s="5"/>
       <c r="E646" s="5"/>
     </row>
-    <row r="647" spans="2:5" ht="12.5">
+    <row r="647" spans="2:5" ht="12.75">
       <c r="B647" s="5"/>
       <c r="E647" s="5"/>
     </row>
-    <row r="648" spans="2:5" ht="12.5">
+    <row r="648" spans="2:5" ht="12.75">
       <c r="B648" s="5"/>
       <c r="E648" s="5"/>
     </row>
-    <row r="649" spans="2:5" ht="12.5">
+    <row r="649" spans="2:5" ht="12.75">
       <c r="B649" s="5"/>
       <c r="E649" s="5"/>
     </row>
-    <row r="650" spans="2:5" ht="12.5">
+    <row r="650" spans="2:5" ht="12.75">
       <c r="B650" s="5"/>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" spans="2:5" ht="12.5">
+    <row r="651" spans="2:5" ht="12.75">
       <c r="B651" s="5"/>
       <c r="E651" s="5"/>
     </row>
-    <row r="652" spans="2:5" ht="12.5">
+    <row r="652" spans="2:5" ht="12.75">
       <c r="B652" s="5"/>
       <c r="E652" s="5"/>
     </row>
-    <row r="653" spans="2:5" ht="12.5">
+    <row r="653" spans="2:5" ht="12.75">
       <c r="B653" s="5"/>
       <c r="E653" s="5"/>
     </row>
-    <row r="654" spans="2:5" ht="12.5">
+    <row r="654" spans="2:5" ht="12.75">
       <c r="B654" s="5"/>
       <c r="E654" s="5"/>
     </row>
-    <row r="655" spans="2:5" ht="12.5">
+    <row r="655" spans="2:5" ht="12.75">
       <c r="B655" s="5"/>
       <c r="E655" s="5"/>
     </row>
-    <row r="656" spans="2:5" ht="12.5">
+    <row r="656" spans="2:5" ht="12.75">
       <c r="B656" s="5"/>
       <c r="E656" s="5"/>
     </row>
-    <row r="657" spans="2:5" ht="12.5">
+    <row r="657" spans="2:5" ht="12.75">
       <c r="B657" s="5"/>
       <c r="E657" s="5"/>
     </row>
-    <row r="658" spans="2:5" ht="12.5">
+    <row r="658" spans="2:5" ht="12.75">
       <c r="B658" s="5"/>
       <c r="E658" s="5"/>
     </row>
-    <row r="659" spans="2:5" ht="12.5">
+    <row r="659" spans="2:5" ht="12.75">
       <c r="B659" s="5"/>
       <c r="E659" s="5"/>
     </row>
-    <row r="660" spans="2:5" ht="12.5">
+    <row r="660" spans="2:5" ht="12.75">
       <c r="B660" s="5"/>
       <c r="E660" s="5"/>
     </row>
-    <row r="661" spans="2:5" ht="12.5">
+    <row r="661" spans="2:5" ht="12.75">
       <c r="B661" s="5"/>
       <c r="E661" s="5"/>
     </row>
-    <row r="662" spans="2:5" ht="12.5">
+    <row r="662" spans="2:5" ht="12.75">
       <c r="B662" s="5"/>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" spans="2:5" ht="12.5">
+    <row r="663" spans="2:5" ht="12.75">
       <c r="B663" s="5"/>
       <c r="E663" s="5"/>
     </row>
-    <row r="664" spans="2:5" ht="12.5">
+    <row r="664" spans="2:5" ht="12.75">
       <c r="B664" s="5"/>
       <c r="E664" s="5"/>
     </row>
-    <row r="665" spans="2:5" ht="12.5">
+    <row r="665" spans="2:5" ht="12.75">
       <c r="B665" s="5"/>
       <c r="E665" s="5"/>
     </row>
-    <row r="666" spans="2:5" ht="12.5">
+    <row r="666" spans="2:5" ht="12.75">
       <c r="B666" s="5"/>
       <c r="E666" s="5"/>
     </row>
-    <row r="667" spans="2:5" ht="12.5">
+    <row r="667" spans="2:5" ht="12.75">
       <c r="B667" s="5"/>
       <c r="E667" s="5"/>
     </row>
-    <row r="668" spans="2:5" ht="12.5">
+    <row r="668" spans="2:5" ht="12.75">
       <c r="B668" s="5"/>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" spans="2:5" ht="12.5">
+    <row r="669" spans="2:5" ht="12.75">
       <c r="B669" s="5"/>
       <c r="E669" s="5"/>
     </row>
-    <row r="670" spans="2:5" ht="12.5">
+    <row r="670" spans="2:5" ht="12.75">
       <c r="B670" s="5"/>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" spans="2:5" ht="12.5">
+    <row r="671" spans="2:5" ht="12.75">
       <c r="B671" s="5"/>
       <c r="E671" s="5"/>
     </row>
-    <row r="672" spans="2:5" ht="12.5">
+    <row r="672" spans="2:5" ht="12.75">
       <c r="B672" s="5"/>
       <c r="E672" s="5"/>
     </row>
-    <row r="673" spans="2:5" ht="12.5">
+    <row r="673" spans="2:5" ht="12.75">
       <c r="B673" s="5"/>
       <c r="E673" s="5"/>
     </row>
-    <row r="674" spans="2:5" ht="12.5">
+    <row r="674" spans="2:5" ht="12.75">
       <c r="B674" s="5"/>
       <c r="E674" s="5"/>
     </row>
-    <row r="675" spans="2:5" ht="12.5">
+    <row r="675" spans="2:5" ht="12.75">
       <c r="B675" s="5"/>
       <c r="E675" s="5"/>
     </row>
-    <row r="676" spans="2:5" ht="12.5">
+    <row r="676" spans="2:5" ht="12.75">
       <c r="B676" s="5"/>
       <c r="E676" s="5"/>
     </row>
-    <row r="677" spans="2:5" ht="12.5">
+    <row r="677" spans="2:5" ht="12.75">
       <c r="B677" s="5"/>
       <c r="E677" s="5"/>
     </row>
-    <row r="678" spans="2:5" ht="12.5">
+    <row r="678" spans="2:5" ht="12.75">
       <c r="B678" s="5"/>
       <c r="E678" s="5"/>
     </row>
-    <row r="679" spans="2:5" ht="12.5">
+    <row r="679" spans="2:5" ht="12.75">
       <c r="B679" s="5"/>
       <c r="E679" s="5"/>
     </row>
-    <row r="680" spans="2:5" ht="12.5">
+    <row r="680" spans="2:5" ht="12.75">
       <c r="B680" s="5"/>
       <c r="E680" s="5"/>
     </row>
-    <row r="681" spans="2:5" ht="12.5">
+    <row r="681" spans="2:5" ht="12.75">
       <c r="B681" s="5"/>
       <c r="E681" s="5"/>
     </row>
-    <row r="682" spans="2:5" ht="12.5">
+    <row r="682" spans="2:5" ht="12.75">
       <c r="B682" s="5"/>
       <c r="E682" s="5"/>
     </row>
-    <row r="683" spans="2:5" ht="12.5">
+    <row r="683" spans="2:5" ht="12.75">
       <c r="B683" s="5"/>
       <c r="E683" s="5"/>
     </row>
-    <row r="684" spans="2:5" ht="12.5">
+    <row r="684" spans="2:5" ht="12.75">
       <c r="B684" s="5"/>
       <c r="E684" s="5"/>
     </row>
-    <row r="685" spans="2:5" ht="12.5">
+    <row r="685" spans="2:5" ht="12.75">
       <c r="B685" s="5"/>
       <c r="E685" s="5"/>
     </row>
-    <row r="686" spans="2:5" ht="12.5">
+    <row r="686" spans="2:5" ht="12.75">
       <c r="B686" s="5"/>
       <c r="E686" s="5"/>
     </row>
-    <row r="687" spans="2:5" ht="12.5">
+    <row r="687" spans="2:5" ht="12.75">
       <c r="B687" s="5"/>
       <c r="E687" s="5"/>
     </row>
-    <row r="688" spans="2:5" ht="12.5">
+    <row r="688" spans="2:5" ht="12.75">
       <c r="B688" s="5"/>
       <c r="E688" s="5"/>
     </row>
-    <row r="689" spans="2:5" ht="12.5">
+    <row r="689" spans="2:5" ht="12.75">
       <c r="B689" s="5"/>
       <c r="E689" s="5"/>
     </row>
-    <row r="690" spans="2:5" ht="12.5">
+    <row r="690" spans="2:5" ht="12.75">
       <c r="B690" s="5"/>
       <c r="E690" s="5"/>
     </row>
-    <row r="691" spans="2:5" ht="12.5">
+    <row r="691" spans="2:5" ht="12.75">
       <c r="B691" s="5"/>
       <c r="E691" s="5"/>
     </row>
-    <row r="692" spans="2:5" ht="12.5">
+    <row r="692" spans="2:5" ht="12.75">
       <c r="B692" s="5"/>
       <c r="E692" s="5"/>
     </row>
-    <row r="693" spans="2:5" ht="12.5">
+    <row r="693" spans="2:5" ht="12.75">
       <c r="B693" s="5"/>
       <c r="E693" s="5"/>
     </row>
-    <row r="694" spans="2:5" ht="12.5">
+    <row r="694" spans="2:5" ht="12.75">
       <c r="B694" s="5"/>
       <c r="E694" s="5"/>
     </row>
-    <row r="695" spans="2:5" ht="12.5">
+    <row r="695" spans="2:5" ht="12.75">
       <c r="B695" s="5"/>
       <c r="E695" s="5"/>
     </row>
-    <row r="696" spans="2:5" ht="12.5">
+    <row r="696" spans="2:5" ht="12.75">
       <c r="B696" s="5"/>
       <c r="E696" s="5"/>
     </row>
-    <row r="697" spans="2:5" ht="12.5">
+    <row r="697" spans="2:5" ht="12.75">
       <c r="B697" s="5"/>
       <c r="E697" s="5"/>
     </row>
-    <row r="698" spans="2:5" ht="12.5">
+    <row r="698" spans="2:5" ht="12.75">
       <c r="B698" s="5"/>
       <c r="E698" s="5"/>
     </row>
-    <row r="699" spans="2:5" ht="12.5">
+    <row r="699" spans="2:5" ht="12.75">
       <c r="B699" s="5"/>
       <c r="E699" s="5"/>
     </row>
-    <row r="700" spans="2:5" ht="12.5">
+    <row r="700" spans="2:5" ht="12.75">
       <c r="B700" s="5"/>
       <c r="E700" s="5"/>
     </row>
-    <row r="701" spans="2:5" ht="12.5">
+    <row r="701" spans="2:5" ht="12.75">
       <c r="B701" s="5"/>
       <c r="E701" s="5"/>
     </row>
-    <row r="702" spans="2:5" ht="12.5">
+    <row r="702" spans="2:5" ht="12.75">
       <c r="B702" s="5"/>
       <c r="E702" s="5"/>
     </row>
-    <row r="703" spans="2:5" ht="12.5">
+    <row r="703" spans="2:5" ht="12.75">
       <c r="B703" s="5"/>
       <c r="E703" s="5"/>
     </row>
-    <row r="704" spans="2:5" ht="12.5">
+    <row r="704" spans="2:5" ht="12.75">
       <c r="B704" s="5"/>
       <c r="E704" s="5"/>
     </row>
-    <row r="705" spans="2:5" ht="12.5">
+    <row r="705" spans="2:5" ht="12.75">
       <c r="B705" s="5"/>
       <c r="E705" s="5"/>
     </row>
-    <row r="706" spans="2:5" ht="12.5">
+    <row r="706" spans="2:5" ht="12.75">
       <c r="B706" s="5"/>
       <c r="E706" s="5"/>
     </row>
-    <row r="707" spans="2:5" ht="12.5">
+    <row r="707" spans="2:5" ht="12.75">
       <c r="B707" s="5"/>
       <c r="E707" s="5"/>
     </row>
-    <row r="708" spans="2:5" ht="12.5">
+    <row r="708" spans="2:5" ht="12.75">
       <c r="B708" s="5"/>
       <c r="E708" s="5"/>
     </row>
-    <row r="709" spans="2:5" ht="12.5">
+    <row r="709" spans="2:5" ht="12.75">
       <c r="B709" s="5"/>
       <c r="E709" s="5"/>
     </row>
-    <row r="710" spans="2:5" ht="12.5">
+    <row r="710" spans="2:5" ht="12.75">
       <c r="B710" s="5"/>
       <c r="E710" s="5"/>
     </row>
-    <row r="711" spans="2:5" ht="12.5">
+    <row r="711" spans="2:5" ht="12.75">
       <c r="B711" s="5"/>
       <c r="E711" s="5"/>
     </row>
-    <row r="712" spans="2:5" ht="12.5">
+    <row r="712" spans="2:5" ht="12.75">
       <c r="B712" s="5"/>
       <c r="E712" s="5"/>
     </row>
-    <row r="713" spans="2:5" ht="12.5">
+    <row r="713" spans="2:5" ht="12.75">
       <c r="B713" s="5"/>
       <c r="E713" s="5"/>
     </row>
-    <row r="714" spans="2:5" ht="12.5">
+    <row r="714" spans="2:5" ht="12.75">
       <c r="B714" s="5"/>
       <c r="E714" s="5"/>
     </row>
-    <row r="715" spans="2:5" ht="12.5">
+    <row r="715" spans="2:5" ht="12.75">
       <c r="B715" s="5"/>
       <c r="E715" s="5"/>
     </row>
-    <row r="716" spans="2:5" ht="12.5">
+    <row r="716" spans="2:5" ht="12.75">
       <c r="B716" s="5"/>
       <c r="E716" s="5"/>
     </row>
-    <row r="717" spans="2:5" ht="12.5">
+    <row r="717" spans="2:5" ht="12.75">
       <c r="B717" s="5"/>
       <c r="E717" s="5"/>
     </row>
-    <row r="718" spans="2:5" ht="12.5">
+    <row r="718" spans="2:5" ht="12.75">
       <c r="B718" s="5"/>
       <c r="E718" s="5"/>
     </row>
-    <row r="719" spans="2:5" ht="12.5">
+    <row r="719" spans="2:5" ht="12.75">
       <c r="B719" s="5"/>
       <c r="E719" s="5"/>
     </row>
-    <row r="720" spans="2:5" ht="12.5">
+    <row r="720" spans="2:5" ht="12.75">
       <c r="B720" s="5"/>
       <c r="E720" s="5"/>
     </row>
-    <row r="721" spans="2:5" ht="12.5">
+    <row r="721" spans="2:5" ht="12.75">
       <c r="B721" s="5"/>
       <c r="E721" s="5"/>
     </row>
-    <row r="722" spans="2:5" ht="12.5">
+    <row r="722" spans="2:5" ht="12.75">
       <c r="B722" s="5"/>
       <c r="E722" s="5"/>
     </row>
-    <row r="723" spans="2:5" ht="12.5">
+    <row r="723" spans="2:5" ht="12.75">
       <c r="B723" s="5"/>
       <c r="E723" s="5"/>
     </row>
-    <row r="724" spans="2:5" ht="12.5">
+    <row r="724" spans="2:5" ht="12.75">
       <c r="B724" s="5"/>
       <c r="E724" s="5"/>
     </row>
-    <row r="725" spans="2:5" ht="12.5">
+    <row r="725" spans="2:5" ht="12.75">
       <c r="B725" s="5"/>
       <c r="E725" s="5"/>
     </row>
-    <row r="726" spans="2:5" ht="12.5">
+    <row r="726" spans="2:5" ht="12.75">
       <c r="B726" s="5"/>
       <c r="E726" s="5"/>
     </row>
-    <row r="727" spans="2:5" ht="12.5">
+    <row r="727" spans="2:5" ht="12.75">
       <c r="B727" s="5"/>
       <c r="E727" s="5"/>
     </row>
-    <row r="728" spans="2:5" ht="12.5">
+    <row r="728" spans="2:5" ht="12.75">
       <c r="B728" s="5"/>
       <c r="E728" s="5"/>
     </row>
-    <row r="729" spans="2:5" ht="12.5">
+    <row r="729" spans="2:5" ht="12.75">
       <c r="B729" s="5"/>
       <c r="E729" s="5"/>
     </row>
-    <row r="730" spans="2:5" ht="12.5">
+    <row r="730" spans="2:5" ht="12.75">
       <c r="B730" s="5"/>
       <c r="E730" s="5"/>
     </row>
-    <row r="731" spans="2:5" ht="12.5">
+    <row r="731" spans="2:5" ht="12.75">
       <c r="B731" s="5"/>
       <c r="E731" s="5"/>
     </row>
-    <row r="732" spans="2:5" ht="12.5">
+    <row r="732" spans="2:5" ht="12.75">
       <c r="B732" s="5"/>
       <c r="E732" s="5"/>
     </row>
-    <row r="733" spans="2:5" ht="12.5">
+    <row r="733" spans="2:5" ht="12.75">
       <c r="B733" s="5"/>
       <c r="E733" s="5"/>
     </row>
-    <row r="734" spans="2:5" ht="12.5">
+    <row r="734" spans="2:5" ht="12.75">
       <c r="B734" s="5"/>
       <c r="E734" s="5"/>
     </row>
-    <row r="735" spans="2:5" ht="12.5">
+    <row r="735" spans="2:5" ht="12.75">
       <c r="B735" s="5"/>
       <c r="E735" s="5"/>
     </row>
-    <row r="736" spans="2:5" ht="12.5">
+    <row r="736" spans="2:5" ht="12.75">
       <c r="B736" s="5"/>
       <c r="E736" s="5"/>
     </row>
-    <row r="737" spans="2:5" ht="12.5">
+    <row r="737" spans="2:5" ht="12.75">
       <c r="B737" s="5"/>
       <c r="E737" s="5"/>
     </row>
-    <row r="738" spans="2:5" ht="12.5">
+    <row r="738" spans="2:5" ht="12.75">
       <c r="B738" s="5"/>
       <c r="E738" s="5"/>
     </row>
-    <row r="739" spans="2:5" ht="12.5">
+    <row r="739" spans="2:5" ht="12.75">
       <c r="B739" s="5"/>
       <c r="E739" s="5"/>
     </row>
-    <row r="740" spans="2:5" ht="12.5">
+    <row r="740" spans="2:5" ht="12.75">
       <c r="B740" s="5"/>
       <c r="E740" s="5"/>
     </row>
-    <row r="741" spans="2:5" ht="12.5">
+    <row r="741" spans="2:5" ht="12.75">
       <c r="B741" s="5"/>
       <c r="E741" s="5"/>
     </row>
-    <row r="742" spans="2:5" ht="12.5">
+    <row r="742" spans="2:5" ht="12.75">
       <c r="B742" s="5"/>
       <c r="E742" s="5"/>
     </row>
-    <row r="743" spans="2:5" ht="12.5">
+    <row r="743" spans="2:5" ht="12.75">
       <c r="B743" s="5"/>
       <c r="E743" s="5"/>
     </row>
-    <row r="744" spans="2:5" ht="12.5">
+    <row r="744" spans="2:5" ht="12.75">
       <c r="B744" s="5"/>
       <c r="E744" s="5"/>
     </row>
-    <row r="745" spans="2:5" ht="12.5">
+    <row r="745" spans="2:5" ht="12.75">
       <c r="B745" s="5"/>
       <c r="E745" s="5"/>
     </row>
-    <row r="746" spans="2:5" ht="12.5">
+    <row r="746" spans="2:5" ht="12.75">
       <c r="B746" s="5"/>
       <c r="E746" s="5"/>
     </row>
-    <row r="747" spans="2:5" ht="12.5">
+    <row r="747" spans="2:5" ht="12.75">
       <c r="B747" s="5"/>
       <c r="E747" s="5"/>
     </row>
-    <row r="748" spans="2:5" ht="12.5">
+    <row r="748" spans="2:5" ht="12.75">
       <c r="B748" s="5"/>
       <c r="E748" s="5"/>
     </row>
-    <row r="749" spans="2:5" ht="12.5">
+    <row r="749" spans="2:5" ht="12.75">
       <c r="B749" s="5"/>
       <c r="E749" s="5"/>
     </row>
-    <row r="750" spans="2:5" ht="12.5">
+    <row r="750" spans="2:5" ht="12.75">
       <c r="B750" s="5"/>
       <c r="E750" s="5"/>
     </row>
-    <row r="751" spans="2:5" ht="12.5">
+    <row r="751" spans="2:5" ht="12.75">
       <c r="B751" s="5"/>
       <c r="E751" s="5"/>
     </row>
-    <row r="752" spans="2:5" ht="12.5">
+    <row r="752" spans="2:5" ht="12.75">
       <c r="B752" s="5"/>
       <c r="E752" s="5"/>
     </row>
-    <row r="753" spans="2:5" ht="12.5">
+    <row r="753" spans="2:5" ht="12.75">
       <c r="B753" s="5"/>
       <c r="E753" s="5"/>
     </row>
-    <row r="754" spans="2:5" ht="12.5">
+    <row r="754" spans="2:5" ht="12.75">
       <c r="B754" s="5"/>
       <c r="E754" s="5"/>
     </row>
-    <row r="755" spans="2:5" ht="12.5">
+    <row r="755" spans="2:5" ht="12.75">
       <c r="B755" s="5"/>
       <c r="E755" s="5"/>
     </row>
-    <row r="756" spans="2:5" ht="12.5">
+    <row r="756" spans="2:5" ht="12.75">
       <c r="B756" s="5"/>
       <c r="E756" s="5"/>
     </row>
-    <row r="757" spans="2:5" ht="12.5">
+    <row r="757" spans="2:5" ht="12.75">
       <c r="B757" s="5"/>
       <c r="E757" s="5"/>
     </row>
-    <row r="758" spans="2:5" ht="12.5">
+    <row r="758" spans="2:5" ht="12.75">
       <c r="B758" s="5"/>
       <c r="E758" s="5"/>
     </row>
-    <row r="759" spans="2:5" ht="12.5">
+    <row r="759" spans="2:5" ht="12.75">
       <c r="B759" s="5"/>
       <c r="E759" s="5"/>
     </row>
-    <row r="760" spans="2:5" ht="12.5">
+    <row r="760" spans="2:5" ht="12.75">
       <c r="B760" s="5"/>
       <c r="E760" s="5"/>
     </row>
-    <row r="761" spans="2:5" ht="12.5">
+    <row r="761" spans="2:5" ht="12.75">
       <c r="B761" s="5"/>
       <c r="E761" s="5"/>
     </row>
-    <row r="762" spans="2:5" ht="12.5">
+    <row r="762" spans="2:5" ht="12.75">
       <c r="B762" s="5"/>
       <c r="E762" s="5"/>
     </row>
-    <row r="763" spans="2:5" ht="12.5">
+    <row r="763" spans="2:5" ht="12.75">
       <c r="B763" s="5"/>
       <c r="E763" s="5"/>
     </row>
-    <row r="764" spans="2:5" ht="12.5">
+    <row r="764" spans="2:5" ht="12.75">
       <c r="B764" s="5"/>
       <c r="E764" s="5"/>
     </row>
-    <row r="765" spans="2:5" ht="12.5">
+    <row r="765" spans="2:5" ht="12.75">
       <c r="B765" s="5"/>
       <c r="E765" s="5"/>
     </row>
-    <row r="766" spans="2:5" ht="12.5">
+    <row r="766" spans="2:5" ht="12.75">
       <c r="B766" s="5"/>
       <c r="E766" s="5"/>
     </row>
-    <row r="767" spans="2:5" ht="12.5">
+    <row r="767" spans="2:5" ht="12.75">
       <c r="B767" s="5"/>
       <c r="E767" s="5"/>
     </row>
-    <row r="768" spans="2:5" ht="12.5">
+    <row r="768" spans="2:5" ht="12.75">
       <c r="B768" s="5"/>
       <c r="E768" s="5"/>
     </row>
-    <row r="769" spans="2:5" ht="12.5">
+    <row r="769" spans="2:5" ht="12.75">
       <c r="B769" s="5"/>
       <c r="E769" s="5"/>
     </row>
-    <row r="770" spans="2:5" ht="12.5">
+    <row r="770" spans="2:5" ht="12.75">
       <c r="B770" s="5"/>
       <c r="E770" s="5"/>
     </row>
-    <row r="771" spans="2:5" ht="12.5">
+    <row r="771" spans="2:5" ht="12.75">
       <c r="B771" s="5"/>
       <c r="E771" s="5"/>
     </row>
-    <row r="772" spans="2:5" ht="12.5">
+    <row r="772" spans="2:5" ht="12.75">
       <c r="B772" s="5"/>
       <c r="E772" s="5"/>
     </row>
-    <row r="773" spans="2:5" ht="12.5">
+    <row r="773" spans="2:5" ht="12.75">
       <c r="B773" s="5"/>
       <c r="E773" s="5"/>
     </row>
-    <row r="774" spans="2:5" ht="12.5">
+    <row r="774" spans="2:5" ht="12.75">
       <c r="B774" s="5"/>
       <c r="E774" s="5"/>
     </row>
-    <row r="775" spans="2:5" ht="12.5">
+    <row r="775" spans="2:5" ht="12.75">
       <c r="B775" s="5"/>
       <c r="E775" s="5"/>
     </row>
-    <row r="776" spans="2:5" ht="12.5">
+    <row r="776" spans="2:5" ht="12.75">
       <c r="B776" s="5"/>
       <c r="E776" s="5"/>
     </row>
-    <row r="777" spans="2:5" ht="12.5">
+    <row r="777" spans="2:5" ht="12.75">
       <c r="B777" s="5"/>
       <c r="E777" s="5"/>
     </row>
-    <row r="778" spans="2:5" ht="12.5">
+    <row r="778" spans="2:5" ht="12.75">
       <c r="B778" s="5"/>
       <c r="E778" s="5"/>
     </row>
-    <row r="779" spans="2:5" ht="12.5">
+    <row r="779" spans="2:5" ht="12.75">
       <c r="B779" s="5"/>
       <c r="E779" s="5"/>
     </row>
-    <row r="780" spans="2:5" ht="12.5">
+    <row r="780" spans="2:5" ht="12.75">
       <c r="B780" s="5"/>
       <c r="E780" s="5"/>
     </row>
-    <row r="781" spans="2:5" ht="12.5">
+    <row r="781" spans="2:5" ht="12.75">
       <c r="B781" s="5"/>
       <c r="E781" s="5"/>
     </row>
-    <row r="782" spans="2:5" ht="12.5">
+    <row r="782" spans="2:5" ht="12.75">
       <c r="B782" s="5"/>
       <c r="E782" s="5"/>
     </row>
-    <row r="783" spans="2:5" ht="12.5">
+    <row r="783" spans="2:5" ht="12.75">
       <c r="B783" s="5"/>
       <c r="E783" s="5"/>
     </row>
-    <row r="784" spans="2:5" ht="12.5">
+    <row r="784" spans="2:5" ht="12.75">
       <c r="B784" s="5"/>
       <c r="E784" s="5"/>
     </row>
-    <row r="785" spans="2:5" ht="12.5">
+    <row r="785" spans="2:5" ht="12.75">
       <c r="B785" s="5"/>
       <c r="E785" s="5"/>
     </row>
-    <row r="786" spans="2:5" ht="12.5">
+    <row r="786" spans="2:5" ht="12.75">
       <c r="B786" s="5"/>
       <c r="E786" s="5"/>
     </row>
-    <row r="787" spans="2:5" ht="12.5">
+    <row r="787" spans="2:5" ht="12.75">
       <c r="B787" s="5"/>
       <c r="E787" s="5"/>
     </row>
-    <row r="788" spans="2:5" ht="12.5">
+    <row r="788" spans="2:5" ht="12.75">
       <c r="B788" s="5"/>
       <c r="E788" s="5"/>
     </row>
-    <row r="789" spans="2:5" ht="12.5">
+    <row r="789" spans="2:5" ht="12.75">
       <c r="B789" s="5"/>
       <c r="E789" s="5"/>
     </row>
-    <row r="790" spans="2:5" ht="12.5">
+    <row r="790" spans="2:5" ht="12.75">
       <c r="B790" s="5"/>
       <c r="E790" s="5"/>
     </row>
-    <row r="791" spans="2:5" ht="12.5">
+    <row r="791" spans="2:5" ht="12.75">
       <c r="B791" s="5"/>
       <c r="E791" s="5"/>
     </row>
-    <row r="792" spans="2:5" ht="12.5">
+    <row r="792" spans="2:5" ht="12.75">
       <c r="B792" s="5"/>
       <c r="E792" s="5"/>
     </row>
-    <row r="793" spans="2:5" ht="12.5">
+    <row r="793" spans="2:5" ht="12.75">
       <c r="B793" s="5"/>
       <c r="E793" s="5"/>
     </row>
-    <row r="794" spans="2:5" ht="12.5">
+    <row r="794" spans="2:5" ht="12.75">
       <c r="B794" s="5"/>
       <c r="E794" s="5"/>
     </row>
-    <row r="795" spans="2:5" ht="12.5">
+    <row r="795" spans="2:5" ht="12.75">
       <c r="B795" s="5"/>
       <c r="E795" s="5"/>
     </row>
-    <row r="796" spans="2:5" ht="12.5">
+    <row r="796" spans="2:5" ht="12.75">
       <c r="B796" s="5"/>
       <c r="E796" s="5"/>
     </row>
-    <row r="797" spans="2:5" ht="12.5">
+    <row r="797" spans="2:5" ht="12.75">
       <c r="B797" s="5"/>
       <c r="E797" s="5"/>
     </row>
-    <row r="798" spans="2:5" ht="12.5">
+    <row r="798" spans="2:5" ht="12.75">
       <c r="B798" s="5"/>
       <c r="E798" s="5"/>
     </row>
-    <row r="799" spans="2:5" ht="12.5">
+    <row r="799" spans="2:5" ht="12.75">
       <c r="B799" s="5"/>
       <c r="E799" s="5"/>
     </row>
-    <row r="800" spans="2:5" ht="12.5">
+    <row r="800" spans="2:5" ht="12.75">
       <c r="B800" s="5"/>
       <c r="E800" s="5"/>
     </row>
-    <row r="801" spans="2:5" ht="12.5">
+    <row r="801" spans="2:5" ht="12.75">
       <c r="B801" s="5"/>
       <c r="E801" s="5"/>
     </row>
-    <row r="802" spans="2:5" ht="12.5">
+    <row r="802" spans="2:5" ht="12.75">
       <c r="B802" s="5"/>
       <c r="E802" s="5"/>
     </row>
-    <row r="803" spans="2:5" ht="12.5">
+    <row r="803" spans="2:5" ht="12.75">
       <c r="B803" s="5"/>
       <c r="E803" s="5"/>
     </row>
-    <row r="804" spans="2:5" ht="12.5">
+    <row r="804" spans="2:5" ht="12.75">
       <c r="B804" s="5"/>
       <c r="E804" s="5"/>
     </row>
-    <row r="805" spans="2:5" ht="12.5">
+    <row r="805" spans="2:5" ht="12.75">
       <c r="B805" s="5"/>
       <c r="E805" s="5"/>
     </row>
-    <row r="806" spans="2:5" ht="12.5">
+    <row r="806" spans="2:5" ht="12.75">
       <c r="B806" s="5"/>
       <c r="E806" s="5"/>
     </row>
-    <row r="807" spans="2:5" ht="12.5">
+    <row r="807" spans="2:5" ht="12.75">
       <c r="B807" s="5"/>
       <c r="E807" s="5"/>
     </row>
-    <row r="808" spans="2:5" ht="12.5">
+    <row r="808" spans="2:5" ht="12.75">
       <c r="B808" s="5"/>
       <c r="E808" s="5"/>
     </row>
-    <row r="809" spans="2:5" ht="12.5">
+    <row r="809" spans="2:5" ht="12.75">
       <c r="B809" s="5"/>
       <c r="E809" s="5"/>
     </row>
-    <row r="810" spans="2:5" ht="12.5">
+    <row r="810" spans="2:5" ht="12.75">
       <c r="B810" s="5"/>
       <c r="E810" s="5"/>
     </row>
-    <row r="811" spans="2:5" ht="12.5">
+    <row r="811" spans="2:5" ht="12.75">
       <c r="B811" s="5"/>
       <c r="E811" s="5"/>
     </row>
-    <row r="812" spans="2:5" ht="12.5">
+    <row r="812" spans="2:5" ht="12.75">
       <c r="B812" s="5"/>
       <c r="E812" s="5"/>
     </row>
-    <row r="813" spans="2:5" ht="12.5">
+    <row r="813" spans="2:5" ht="12.75">
       <c r="B813" s="5"/>
       <c r="E813" s="5"/>
     </row>
-    <row r="814" spans="2:5" ht="12.5">
+    <row r="814" spans="2:5" ht="12.75">
       <c r="B814" s="5"/>
       <c r="E814" s="5"/>
     </row>
-    <row r="815" spans="2:5" ht="12.5">
+    <row r="815" spans="2:5" ht="12.75">
       <c r="B815" s="5"/>
       <c r="E815" s="5"/>
     </row>
-    <row r="816" spans="2:5" ht="12.5">
+    <row r="816" spans="2:5" ht="12.75">
       <c r="B816" s="5"/>
       <c r="E816" s="5"/>
     </row>
-    <row r="817" spans="2:5" ht="12.5">
+    <row r="817" spans="2:5" ht="12.75">
       <c r="B817" s="5"/>
       <c r="E817" s="5"/>
     </row>
-    <row r="818" spans="2:5" ht="12.5">
+    <row r="818" spans="2:5" ht="12.75">
       <c r="B818" s="5"/>
       <c r="E818" s="5"/>
     </row>
-    <row r="819" spans="2:5" ht="12.5">
+    <row r="819" spans="2:5" ht="12.75">
       <c r="B819" s="5"/>
       <c r="E819" s="5"/>
     </row>
-    <row r="820" spans="2:5" ht="12.5">
+    <row r="820" spans="2:5" ht="12.75">
       <c r="B820" s="5"/>
       <c r="E820" s="5"/>
     </row>
-    <row r="821" spans="2:5" ht="12.5">
+    <row r="821" spans="2:5" ht="12.75">
       <c r="B821" s="5"/>
       <c r="E821" s="5"/>
     </row>
-    <row r="822" spans="2:5" ht="12.5">
+    <row r="822" spans="2:5" ht="12.75">
       <c r="B822" s="5"/>
       <c r="E822" s="5"/>
     </row>
-    <row r="823" spans="2:5" ht="12.5">
+    <row r="823" spans="2:5" ht="12.75">
       <c r="B823" s="5"/>
       <c r="E823" s="5"/>
     </row>
-    <row r="824" spans="2:5" ht="12.5">
+    <row r="824" spans="2:5" ht="12.75">
       <c r="B824" s="5"/>
       <c r="E824" s="5"/>
     </row>
-    <row r="825" spans="2:5" ht="12.5">
+    <row r="825" spans="2:5" ht="12.75">
       <c r="B825" s="5"/>
       <c r="E825" s="5"/>
     </row>
-    <row r="826" spans="2:5" ht="12.5">
+    <row r="826" spans="2:5" ht="12.75">
       <c r="B826" s="5"/>
       <c r="E826" s="5"/>
     </row>
-    <row r="827" spans="2:5" ht="12.5">
+    <row r="827" spans="2:5" ht="12.75">
       <c r="B827" s="5"/>
       <c r="E827" s="5"/>
     </row>
-    <row r="828" spans="2:5" ht="12.5">
+    <row r="828" spans="2:5" ht="12.75">
       <c r="B828" s="5"/>
       <c r="E828" s="5"/>
     </row>
-    <row r="829" spans="2:5" ht="12.5">
+    <row r="829" spans="2:5" ht="12.75">
       <c r="B829" s="5"/>
       <c r="E829" s="5"/>
     </row>
-    <row r="830" spans="2:5" ht="12.5">
+    <row r="830" spans="2:5" ht="12.75">
       <c r="B830" s="5"/>
       <c r="E830" s="5"/>
     </row>
-    <row r="831" spans="2:5" ht="12.5">
+    <row r="831" spans="2:5" ht="12.75">
       <c r="B831" s="5"/>
       <c r="E831" s="5"/>
     </row>
-    <row r="832" spans="2:5" ht="12.5">
+    <row r="832" spans="2:5" ht="12.75">
       <c r="B832" s="5"/>
       <c r="E832" s="5"/>
     </row>
-    <row r="833" spans="2:5" ht="12.5">
+    <row r="833" spans="2:5" ht="12.75">
       <c r="B833" s="5"/>
       <c r="E833" s="5"/>
     </row>
-    <row r="834" spans="2:5" ht="12.5">
+    <row r="834" spans="2:5" ht="12.75">
       <c r="B834" s="5"/>
       <c r="E834" s="5"/>
     </row>
-    <row r="835" spans="2:5" ht="12.5">
+    <row r="835" spans="2:5" ht="12.75">
       <c r="B835" s="5"/>
       <c r="E835" s="5"/>
     </row>
-    <row r="836" spans="2:5" ht="12.5">
+    <row r="836" spans="2:5" ht="12.75">
       <c r="B836" s="5"/>
       <c r="E836" s="5"/>
     </row>
-    <row r="837" spans="2:5" ht="12.5">
+    <row r="837" spans="2:5" ht="12.75">
       <c r="B837" s="5"/>
       <c r="E837" s="5"/>
     </row>
-    <row r="838" spans="2:5" ht="12.5">
+    <row r="838" spans="2:5" ht="12.75">
       <c r="B838" s="5"/>
       <c r="E838" s="5"/>
     </row>
-    <row r="839" spans="2:5" ht="12.5">
+    <row r="839" spans="2:5" ht="12.75">
       <c r="B839" s="5"/>
       <c r="E839" s="5"/>
     </row>
-    <row r="840" spans="2:5" ht="12.5">
+    <row r="840" spans="2:5" ht="12.75">
       <c r="B840" s="5"/>
       <c r="E840" s="5"/>
     </row>
-    <row r="841" spans="2:5" ht="12.5">
+    <row r="841" spans="2:5" ht="12.75">
       <c r="B841" s="5"/>
       <c r="E841" s="5"/>
     </row>
-    <row r="842" spans="2:5" ht="12.5">
+    <row r="842" spans="2:5" ht="12.75">
       <c r="B842" s="5"/>
       <c r="E842" s="5"/>
     </row>
-    <row r="843" spans="2:5" ht="12.5">
+    <row r="843" spans="2:5" ht="12.75">
       <c r="B843" s="5"/>
       <c r="E843" s="5"/>
     </row>
-    <row r="844" spans="2:5" ht="12.5">
+    <row r="844" spans="2:5" ht="12.75">
       <c r="B844" s="5"/>
       <c r="E844" s="5"/>
     </row>
-    <row r="845" spans="2:5" ht="12.5">
+    <row r="845" spans="2:5" ht="12.75">
       <c r="B845" s="5"/>
       <c r="E845" s="5"/>
     </row>
-    <row r="846" spans="2:5" ht="12.5">
+    <row r="846" spans="2:5" ht="12.75">
       <c r="B846" s="5"/>
       <c r="E846" s="5"/>
     </row>
-    <row r="847" spans="2:5" ht="12.5">
+    <row r="847" spans="2:5" ht="12.75">
       <c r="B847" s="5"/>
       <c r="E847" s="5"/>
     </row>
-    <row r="848" spans="2:5" ht="12.5">
+    <row r="848" spans="2:5" ht="12.75">
       <c r="B848" s="5"/>
       <c r="E848" s="5"/>
     </row>
-    <row r="849" spans="2:5" ht="12.5">
+    <row r="849" spans="2:5" ht="12.75">
       <c r="B849" s="5"/>
       <c r="E849" s="5"/>
     </row>
-    <row r="850" spans="2:5" ht="12.5">
+    <row r="850" spans="2:5" ht="12.75">
       <c r="B850" s="5"/>
       <c r="E850" s="5"/>
     </row>
-    <row r="851" spans="2:5" ht="12.5">
+    <row r="851" spans="2:5" ht="12.75">
       <c r="B851" s="5"/>
       <c r="E851" s="5"/>
     </row>
-    <row r="852" spans="2:5" ht="12.5">
+    <row r="852" spans="2:5" ht="12.75">
       <c r="B852" s="5"/>
       <c r="E852" s="5"/>
     </row>
-    <row r="853" spans="2:5" ht="12.5">
+    <row r="853" spans="2:5" ht="12.75">
       <c r="B853" s="5"/>
       <c r="E853" s="5"/>
     </row>
-    <row r="854" spans="2:5" ht="12.5">
+    <row r="854" spans="2:5" ht="12.75">
       <c r="B854" s="5"/>
       <c r="E854" s="5"/>
     </row>
-    <row r="855" spans="2:5" ht="12.5">
+    <row r="855" spans="2:5" ht="12.75">
       <c r="B855" s="5"/>
       <c r="E855" s="5"/>
     </row>
-    <row r="856" spans="2:5" ht="12.5">
+    <row r="856" spans="2:5" ht="12.75">
       <c r="B856" s="5"/>
       <c r="E856" s="5"/>
     </row>
-    <row r="857" spans="2:5" ht="12.5">
+    <row r="857" spans="2:5" ht="12.75">
       <c r="B857" s="5"/>
       <c r="E857" s="5"/>
     </row>
-    <row r="858" spans="2:5" ht="12.5">
+    <row r="858" spans="2:5" ht="12.75">
       <c r="B858" s="5"/>
       <c r="E858" s="5"/>
     </row>
-    <row r="859" spans="2:5" ht="12.5">
+    <row r="859" spans="2:5" ht="12.75">
       <c r="B859" s="5"/>
       <c r="E859" s="5"/>
     </row>
-    <row r="860" spans="2:5" ht="12.5">
+    <row r="860" spans="2:5" ht="12.75">
       <c r="B860" s="5"/>
       <c r="E860" s="5"/>
     </row>
-    <row r="861" spans="2:5" ht="12.5">
+    <row r="861" spans="2:5" ht="12.75">
       <c r="B861" s="5"/>
       <c r="E861" s="5"/>
     </row>
-    <row r="862" spans="2:5" ht="12.5">
+    <row r="862" spans="2:5" ht="12.75">
       <c r="B862" s="5"/>
       <c r="E862" s="5"/>
     </row>
-    <row r="863" spans="2:5" ht="12.5">
+    <row r="863" spans="2:5" ht="12.75">
       <c r="B863" s="5"/>
       <c r="E863" s="5"/>
     </row>
-    <row r="864" spans="2:5" ht="12.5">
+    <row r="864" spans="2:5" ht="12.75">
       <c r="B864" s="5"/>
       <c r="E864" s="5"/>
     </row>
-    <row r="865" spans="2:5" ht="12.5">
+    <row r="865" spans="2:5" ht="12.75">
       <c r="B865" s="5"/>
       <c r="E865" s="5"/>
     </row>
-    <row r="866" spans="2:5" ht="12.5">
+    <row r="866" spans="2:5" ht="12.75">
       <c r="B866" s="5"/>
       <c r="E866" s="5"/>
     </row>
-    <row r="867" spans="2:5" ht="12.5">
+    <row r="867" spans="2:5" ht="12.75">
       <c r="B867" s="5"/>
       <c r="E867" s="5"/>
     </row>
-    <row r="868" spans="2:5" ht="12.5">
+    <row r="868" spans="2:5" ht="12.75">
       <c r="B868" s="5"/>
       <c r="E868" s="5"/>
     </row>
-    <row r="869" spans="2:5" ht="12.5">
+    <row r="869" spans="2:5" ht="12.75">
       <c r="B869" s="5"/>
       <c r="E869" s="5"/>
     </row>
-    <row r="870" spans="2:5" ht="12.5">
+    <row r="870" spans="2:5" ht="12.75">
       <c r="B870" s="5"/>
       <c r="E870" s="5"/>
     </row>
-    <row r="871" spans="2:5" ht="12.5">
+    <row r="871" spans="2:5" ht="12.75">
       <c r="B871" s="5"/>
       <c r="E871" s="5"/>
     </row>
-    <row r="872" spans="2:5" ht="12.5">
+    <row r="872" spans="2:5" ht="12.75">
       <c r="B872" s="5"/>
       <c r="E872" s="5"/>
     </row>
-    <row r="873" spans="2:5" ht="12.5">
+    <row r="873" spans="2:5" ht="12.75">
       <c r="B873" s="5"/>
       <c r="E873" s="5"/>
     </row>
-    <row r="874" spans="2:5" ht="12.5">
+    <row r="874" spans="2:5" ht="12.75">
       <c r="B874" s="5"/>
       <c r="E874" s="5"/>
     </row>
-    <row r="875" spans="2:5" ht="12.5">
+    <row r="875" spans="2:5" ht="12.75">
       <c r="B875" s="5"/>
       <c r="E875" s="5"/>
     </row>
-    <row r="876" spans="2:5" ht="12.5">
+    <row r="876" spans="2:5" ht="12.75">
       <c r="B876" s="5"/>
       <c r="E876" s="5"/>
     </row>
-    <row r="877" spans="2:5" ht="12.5">
+    <row r="877" spans="2:5" ht="12.75">
       <c r="B877" s="5"/>
       <c r="E877" s="5"/>
     </row>
-    <row r="878" spans="2:5" ht="12.5">
+    <row r="878" spans="2:5" ht="12.75">
       <c r="B878" s="5"/>
       <c r="E878" s="5"/>
     </row>
-    <row r="879" spans="2:5" ht="12.5">
+    <row r="879" spans="2:5" ht="12.75">
       <c r="B879" s="5"/>
       <c r="E879" s="5"/>
     </row>
-    <row r="880" spans="2:5" ht="12.5">
+    <row r="880" spans="2:5" ht="12.75">
       <c r="B880" s="5"/>
       <c r="E880" s="5"/>
     </row>
-    <row r="881" spans="2:5" ht="12.5">
+    <row r="881" spans="2:5" ht="12.75">
       <c r="B881" s="5"/>
       <c r="E881" s="5"/>
     </row>
-    <row r="882" spans="2:5" ht="12.5">
+    <row r="882" spans="2:5" ht="12.75">
       <c r="B882" s="5"/>
       <c r="E882" s="5"/>
     </row>
-    <row r="883" spans="2:5" ht="12.5">
+    <row r="883" spans="2:5" ht="12.75">
       <c r="B883" s="5"/>
       <c r="E883" s="5"/>
     </row>
-    <row r="884" spans="2:5" ht="12.5">
+    <row r="884" spans="2:5" ht="12.75">
       <c r="B884" s="5"/>
       <c r="E884" s="5"/>
     </row>
-    <row r="885" spans="2:5" ht="12.5">
+    <row r="885" spans="2:5" ht="12.75">
       <c r="B885" s="5"/>
       <c r="E885" s="5"/>
     </row>
-    <row r="886" spans="2:5" ht="12.5">
+    <row r="886" spans="2:5" ht="12.75">
       <c r="B886" s="5"/>
       <c r="E886" s="5"/>
     </row>
-    <row r="887" spans="2:5" ht="12.5">
+    <row r="887" spans="2:5" ht="12.75">
       <c r="B887" s="5"/>
       <c r="E887" s="5"/>
     </row>
-    <row r="888" spans="2:5" ht="12.5">
+    <row r="888" spans="2:5" ht="12.75">
       <c r="B888" s="5"/>
       <c r="E888" s="5"/>
     </row>
-    <row r="889" spans="2:5" ht="12.5">
+    <row r="889" spans="2:5" ht="12.75">
       <c r="B889" s="5"/>
       <c r="E889" s="5"/>
     </row>
-    <row r="890" spans="2:5" ht="12.5">
+    <row r="890" spans="2:5" ht="12.75">
       <c r="B890" s="5"/>
       <c r="E890" s="5"/>
     </row>
-    <row r="891" spans="2:5" ht="12.5">
+    <row r="891" spans="2:5" ht="12.75">
       <c r="B891" s="5"/>
       <c r="E891" s="5"/>
     </row>
-    <row r="892" spans="2:5" ht="12.5">
+    <row r="892" spans="2:5" ht="12.75">
       <c r="B892" s="5"/>
       <c r="E892" s="5"/>
     </row>
-    <row r="893" spans="2:5" ht="12.5">
+    <row r="893" spans="2:5" ht="12.75">
       <c r="B893" s="5"/>
       <c r="E893" s="5"/>
     </row>
-    <row r="894" spans="2:5" ht="12.5">
+    <row r="894" spans="2:5" ht="12.75">
       <c r="B894" s="5"/>
       <c r="E894" s="5"/>
     </row>
-    <row r="895" spans="2:5" ht="12.5">
+    <row r="895" spans="2:5" ht="12.75">
       <c r="B895" s="5"/>
       <c r="E895" s="5"/>
     </row>
-    <row r="896" spans="2:5" ht="12.5">
+    <row r="896" spans="2:5" ht="12.75">
       <c r="B896" s="5"/>
       <c r="E896" s="5"/>
     </row>
-    <row r="897" spans="2:5" ht="12.5">
+    <row r="897" spans="2:5" ht="12.75">
       <c r="B897" s="5"/>
       <c r="E897" s="5"/>
     </row>
-    <row r="898" spans="2:5" ht="12.5">
+    <row r="898" spans="2:5" ht="12.75">
       <c r="B898" s="5"/>
       <c r="E898" s="5"/>
     </row>
-    <row r="899" spans="2:5" ht="12.5">
+    <row r="899" spans="2:5" ht="12.75">
       <c r="B899" s="5"/>
       <c r="E899" s="5"/>
     </row>
-    <row r="900" spans="2:5" ht="12.5">
+    <row r="900" spans="2:5" ht="12.75">
       <c r="B900" s="5"/>
       <c r="E900" s="5"/>
     </row>
-    <row r="901" spans="2:5" ht="12.5">
+    <row r="901" spans="2:5" ht="12.75">
       <c r="B901" s="5"/>
       <c r="E901" s="5"/>
     </row>
-    <row r="902" spans="2:5" ht="12.5">
+    <row r="902" spans="2:5" ht="12.75">
       <c r="B902" s="5"/>
       <c r="E902" s="5"/>
     </row>
-    <row r="903" spans="2:5" ht="12.5">
+    <row r="903" spans="2:5" ht="12.75">
       <c r="B903" s="5"/>
       <c r="E903" s="5"/>
     </row>
-    <row r="904" spans="2:5" ht="12.5">
+    <row r="904" spans="2:5" ht="12.75">
       <c r="B904" s="5"/>
       <c r="E904" s="5"/>
     </row>
-    <row r="905" spans="2:5" ht="12.5">
+    <row r="905" spans="2:5" ht="12.75">
       <c r="B905" s="5"/>
       <c r="E905" s="5"/>
     </row>
-    <row r="906" spans="2:5" ht="12.5">
+    <row r="906" spans="2:5" ht="12.75">
       <c r="B906" s="5"/>
       <c r="E906" s="5"/>
     </row>
-    <row r="907" spans="2:5" ht="12.5">
+    <row r="907" spans="2:5" ht="12.75">
       <c r="B907" s="5"/>
       <c r="E907" s="5"/>
     </row>
-    <row r="908" spans="2:5" ht="12.5">
+    <row r="908" spans="2:5" ht="12.75">
       <c r="B908" s="5"/>
       <c r="E908" s="5"/>
     </row>
-    <row r="909" spans="2:5" ht="12.5">
+    <row r="909" spans="2:5" ht="12.75">
       <c r="B909" s="5"/>
       <c r="E909" s="5"/>
     </row>
-    <row r="910" spans="2:5" ht="12.5">
+    <row r="910" spans="2:5" ht="12.75">
       <c r="B910" s="5"/>
       <c r="E910" s="5"/>
     </row>
-    <row r="911" spans="2:5" ht="12.5">
+    <row r="911" spans="2:5" ht="12.75">
       <c r="B911" s="5"/>
       <c r="E911" s="5"/>
     </row>
-    <row r="912" spans="2:5" ht="12.5">
+    <row r="912" spans="2:5" ht="12.75">
       <c r="B912" s="5"/>
       <c r="E912" s="5"/>
     </row>
-    <row r="913" spans="2:5" ht="12.5">
+    <row r="913" spans="2:5" ht="12.75">
       <c r="B913" s="5"/>
       <c r="E913" s="5"/>
     </row>
-    <row r="914" spans="2:5" ht="12.5">
+    <row r="914" spans="2:5" ht="12.75">
       <c r="B914" s="5"/>
       <c r="E914" s="5"/>
     </row>
-    <row r="915" spans="2:5" ht="12.5">
+    <row r="915" spans="2:5" ht="12.75">
       <c r="B915" s="5"/>
       <c r="E915" s="5"/>
     </row>
-    <row r="916" spans="2:5" ht="12.5">
+    <row r="916" spans="2:5" ht="12.75">
       <c r="B916" s="5"/>
       <c r="E916" s="5"/>
     </row>
-    <row r="917" spans="2:5" ht="12.5">
+    <row r="917" spans="2:5" ht="12.75">
       <c r="B917" s="5"/>
       <c r="E917" s="5"/>
     </row>
-    <row r="918" spans="2:5" ht="12.5">
+    <row r="918" spans="2:5" ht="12.75">
       <c r="B918" s="5"/>
       <c r="E918" s="5"/>
     </row>
-    <row r="919" spans="2:5" ht="12.5">
+    <row r="919" spans="2:5" ht="12.75">
       <c r="B919" s="5"/>
       <c r="E919" s="5"/>
     </row>
-    <row r="920" spans="2:5" ht="12.5">
+    <row r="920" spans="2:5" ht="12.75">
       <c r="B920" s="5"/>
       <c r="E920" s="5"/>
     </row>
-    <row r="921" spans="2:5" ht="12.5">
+    <row r="921" spans="2:5" ht="12.75">
       <c r="B921" s="5"/>
       <c r="E921" s="5"/>
     </row>
-    <row r="922" spans="2:5" ht="12.5">
+    <row r="922" spans="2:5" ht="12.75">
       <c r="B922" s="5"/>
       <c r="E922" s="5"/>
     </row>
-    <row r="923" spans="2:5" ht="12.5">
+    <row r="923" spans="2:5" ht="12.75">
       <c r="B923" s="5"/>
       <c r="E923" s="5"/>
     </row>
-    <row r="924" spans="2:5" ht="12.5">
+    <row r="924" spans="2:5" ht="12.75">
       <c r="B924" s="5"/>
       <c r="E924" s="5"/>
     </row>
-    <row r="925" spans="2:5" ht="12.5">
+    <row r="925" spans="2:5" ht="12.75">
       <c r="B925" s="5"/>
       <c r="E925" s="5"/>
     </row>
-    <row r="926" spans="2:5" ht="12.5">
+    <row r="926" spans="2:5" ht="12.75">
       <c r="B926" s="5"/>
       <c r="E926" s="5"/>
     </row>
-    <row r="927" spans="2:5" ht="12.5">
+    <row r="927" spans="2:5" ht="12.75">
       <c r="B927" s="5"/>
       <c r="E927" s="5"/>
     </row>
-    <row r="928" spans="2:5" ht="12.5">
+    <row r="928" spans="2:5" ht="12.75">
       <c r="B928" s="5"/>
       <c r="E928" s="5"/>
     </row>
-    <row r="929" spans="2:5" ht="12.5">
+    <row r="929" spans="2:5" ht="12.75">
       <c r="B929" s="5"/>
       <c r="E929" s="5"/>
     </row>
-    <row r="930" spans="2:5" ht="12.5">
+    <row r="930" spans="2:5" ht="12.75">
       <c r="B930" s="5"/>
       <c r="E930" s="5"/>
     </row>
-    <row r="931" spans="2:5" ht="12.5">
+    <row r="931" spans="2:5" ht="12.75">
       <c r="B931" s="5"/>
       <c r="E931" s="5"/>
     </row>
-    <row r="932" spans="2:5" ht="12.5">
+    <row r="932" spans="2:5" ht="12.75">
       <c r="B932" s="5"/>
       <c r="E932" s="5"/>
     </row>
-    <row r="933" spans="2:5" ht="12.5">
+    <row r="933" spans="2:5" ht="12.75">
       <c r="B933" s="5"/>
       <c r="E933" s="5"/>
     </row>
-    <row r="934" spans="2:5" ht="12.5">
+    <row r="934" spans="2:5" ht="12.75">
       <c r="B934" s="5"/>
       <c r="E934" s="5"/>
     </row>
-    <row r="935" spans="2:5" ht="12.5">
+    <row r="935" spans="2:5" ht="12.75">
       <c r="B935" s="5"/>
       <c r="E935" s="5"/>
     </row>
-    <row r="936" spans="2:5" ht="12.5">
+    <row r="936" spans="2:5" ht="12.75">
       <c r="B936" s="5"/>
       <c r="E936" s="5"/>
     </row>
-    <row r="937" spans="2:5" ht="12.5">
+    <row r="937" spans="2:5" ht="12.75">
       <c r="B937" s="5"/>
       <c r="E937" s="5"/>
     </row>
-    <row r="938" spans="2:5" ht="12.5">
+    <row r="938" spans="2:5" ht="12.75">
       <c r="B938" s="5"/>
       <c r="E938" s="5"/>
     </row>
-    <row r="939" spans="2:5" ht="12.5">
+    <row r="939" spans="2:5" ht="12.75">
       <c r="B939" s="5"/>
       <c r="E939" s="5"/>
     </row>
-    <row r="940" spans="2:5" ht="12.5">
+    <row r="940" spans="2:5" ht="12.75">
       <c r="B940" s="5"/>
       <c r="E940" s="5"/>
     </row>
-    <row r="941" spans="2:5" ht="12.5">
+    <row r="941" spans="2:5" ht="12.75">
       <c r="B941" s="5"/>
       <c r="E941" s="5"/>
     </row>
-    <row r="942" spans="2:5" ht="12.5">
+    <row r="942" spans="2:5" ht="12.75">
       <c r="B942" s="5"/>
       <c r="E942" s="5"/>
     </row>
-    <row r="943" spans="2:5" ht="12.5">
+    <row r="943" spans="2:5" ht="12.75">
       <c r="B943" s="5"/>
       <c r="E943" s="5"/>
     </row>
-    <row r="944" spans="2:5" ht="12.5">
+    <row r="944" spans="2:5" ht="12.75">
       <c r="B944" s="5"/>
       <c r="E944" s="5"/>
     </row>
-    <row r="945" spans="2:5" ht="12.5">
+    <row r="945" spans="2:5" ht="12.75">
       <c r="B945" s="5"/>
       <c r="E945" s="5"/>
     </row>
-    <row r="946" spans="2:5" ht="12.5">
+    <row r="946" spans="2:5" ht="12.75">
       <c r="B946" s="5"/>
       <c r="E946" s="5"/>
     </row>
-    <row r="947" spans="2:5" ht="12.5">
+    <row r="947" spans="2:5" ht="12.75">
       <c r="B947" s="5"/>
       <c r="E947" s="5"/>
     </row>
-    <row r="948" spans="2:5" ht="12.5">
+    <row r="948" spans="2:5" ht="12.75">
       <c r="B948" s="5"/>
       <c r="E948" s="5"/>
     </row>
-    <row r="949" spans="2:5" ht="12.5">
+    <row r="949" spans="2:5" ht="12.75">
       <c r="B949" s="5"/>
       <c r="E949" s="5"/>
     </row>
-    <row r="950" spans="2:5" ht="12.5">
+    <row r="950" spans="2:5" ht="12.75">
       <c r="B950" s="5"/>
       <c r="E950" s="5"/>
     </row>
-    <row r="951" spans="2:5" ht="12.5">
+    <row r="951" spans="2:5" ht="12.75">
       <c r="B951" s="5"/>
       <c r="E951" s="5"/>
     </row>
-    <row r="952" spans="2:5" ht="12.5">
+    <row r="952" spans="2:5" ht="12.75">
       <c r="B952" s="5"/>
       <c r="E952" s="5"/>
     </row>
-    <row r="953" spans="2:5" ht="12.5">
+    <row r="953" spans="2:5" ht="12.75">
       <c r="B953" s="5"/>
       <c r="E953" s="5"/>
     </row>
-    <row r="954" spans="2:5" ht="12.5">
+    <row r="954" spans="2:5" ht="12.75">
       <c r="B954" s="5"/>
       <c r="E954" s="5"/>
     </row>
-    <row r="955" spans="2:5" ht="12.5">
+    <row r="955" spans="2:5" ht="12.75">
       <c r="B955" s="5"/>
       <c r="E955" s="5"/>
     </row>
-    <row r="956" spans="2:5" ht="12.5">
+    <row r="956" spans="2:5" ht="12.75">
       <c r="B956" s="5"/>
       <c r="E956" s="5"/>
     </row>
-    <row r="957" spans="2:5" ht="12.5">
+    <row r="957" spans="2:5" ht="12.75">
       <c r="B957" s="5"/>
       <c r="E957" s="5"/>
     </row>
-    <row r="958" spans="2:5" ht="12.5">
+    <row r="958" spans="2:5" ht="12.75">
       <c r="B958" s="5"/>
       <c r="E958" s="5"/>
     </row>
-    <row r="959" spans="2:5" ht="12.5">
+    <row r="959" spans="2:5" ht="12.75">
       <c r="B959" s="5"/>
       <c r="E959" s="5"/>
     </row>
-    <row r="960" spans="2:5" ht="12.5">
+    <row r="960" spans="2:5" ht="12.75">
       <c r="B960" s="5"/>
       <c r="E960" s="5"/>
     </row>
-    <row r="961" spans="2:5" ht="12.5">
+    <row r="961" spans="2:5" ht="12.75">
       <c r="B961" s="5"/>
       <c r="E961" s="5"/>
     </row>
-    <row r="962" spans="2:5" ht="12.5">
+    <row r="962" spans="2:5" ht="12.75">
       <c r="B962" s="5"/>
       <c r="E962" s="5"/>
     </row>
-    <row r="963" spans="2:5" ht="12.5">
+    <row r="963" spans="2:5" ht="12.75">
       <c r="B963" s="5"/>
       <c r="E963" s="5"/>
     </row>
-    <row r="964" spans="2:5" ht="12.5">
+    <row r="964" spans="2:5" ht="12.75">
       <c r="B964" s="5"/>
       <c r="E964" s="5"/>
     </row>
-    <row r="965" spans="2:5" ht="12.5">
+    <row r="965" spans="2:5" ht="12.75">
       <c r="B965" s="5"/>
       <c r="E965" s="5"/>
     </row>
-    <row r="966" spans="2:5" ht="12.5">
+    <row r="966" spans="2:5" ht="12.75">
       <c r="B966" s="5"/>
       <c r="E966" s="5"/>
     </row>
-    <row r="967" spans="2:5" ht="12.5">
+    <row r="967" spans="2:5" ht="12.75">
       <c r="B967" s="5"/>
       <c r="E967" s="5"/>
     </row>
-    <row r="968" spans="2:5" ht="12.5">
+    <row r="968" spans="2:5" ht="12.75">
       <c r="B968" s="5"/>
       <c r="E968" s="5"/>
     </row>
-    <row r="969" spans="2:5" ht="12.5">
+    <row r="969" spans="2:5" ht="12.75">
       <c r="B969" s="5"/>
       <c r="E969" s="5"/>
     </row>
-    <row r="970" spans="2:5" ht="12.5">
+    <row r="970" spans="2:5" ht="12.75">
       <c r="B970" s="5"/>
       <c r="E970" s="5"/>
     </row>
-    <row r="971" spans="2:5" ht="12.5">
+    <row r="971" spans="2:5" ht="12.75">
       <c r="B971" s="5"/>
       <c r="E971" s="5"/>
     </row>
-    <row r="972" spans="2:5" ht="12.5">
+    <row r="972" spans="2:5" ht="12.75">
       <c r="B972" s="5"/>
       <c r="E972" s="5"/>
     </row>
-    <row r="973" spans="2:5" ht="12.5">
+    <row r="973" spans="2:5" ht="12.75">
       <c r="B973" s="5"/>
       <c r="E973" s="5"/>
     </row>
-    <row r="974" spans="2:5" ht="12.5">
+    <row r="974" spans="2:5" ht="12.75">
       <c r="B974" s="5"/>
       <c r="E974" s="5"/>
     </row>
-    <row r="975" spans="2:5" ht="12.5">
+    <row r="975" spans="2:5" ht="12.75">
       <c r="B975" s="5"/>
       <c r="E975" s="5"/>
     </row>
-    <row r="976" spans="2:5" ht="12.5">
+    <row r="976" spans="2:5" ht="12.75">
       <c r="B976" s="5"/>
       <c r="E976" s="5"/>
     </row>
-    <row r="977" spans="2:5" ht="12.5">
+    <row r="977" spans="2:5" ht="12.75">
       <c r="B977" s="5"/>
       <c r="E977" s="5"/>
     </row>
-    <row r="978" spans="2:5" ht="12.5">
+    <row r="978" spans="2:5" ht="12.75">
       <c r="B978" s="5"/>
       <c r="E978" s="5"/>
     </row>
-    <row r="979" spans="2:5" ht="12.5">
+    <row r="979" spans="2:5" ht="12.75">
       <c r="B979" s="5"/>
       <c r="E979" s="5"/>
     </row>
-    <row r="980" spans="2:5" ht="12.5">
+    <row r="980" spans="2:5" ht="12.75">
       <c r="B980" s="5"/>
       <c r="E980" s="5"/>
     </row>
-    <row r="981" spans="2:5" ht="12.5">
+    <row r="981" spans="2:5" ht="12.75">
       <c r="B981" s="5"/>
       <c r="E981" s="5"/>
     </row>
-    <row r="982" spans="2:5" ht="12.5">
+    <row r="982" spans="2:5" ht="12.75">
       <c r="B982" s="5"/>
       <c r="E982" s="5"/>
     </row>
-    <row r="983" spans="2:5" ht="12.5">
+    <row r="983" spans="2:5" ht="12.75">
       <c r="B983" s="5"/>
       <c r="E983" s="5"/>
     </row>
-    <row r="984" spans="2:5" ht="12.5">
+    <row r="984" spans="2:5" ht="12.75">
       <c r="B984" s="5"/>
       <c r="E984" s="5"/>
     </row>
-    <row r="985" spans="2:5" ht="12.5">
+    <row r="985" spans="2:5" ht="12.75">
       <c r="B985" s="5"/>
       <c r="E985" s="5"/>
     </row>
-    <row r="986" spans="2:5" ht="12.5">
+    <row r="986" spans="2:5" ht="12.75">
       <c r="B986" s="5"/>
       <c r="E986" s="5"/>
     </row>
-    <row r="987" spans="2:5" ht="12.5">
+    <row r="987" spans="2:5" ht="12.75">
       <c r="B987" s="5"/>
       <c r="E987" s="5"/>
     </row>
-    <row r="988" spans="2:5" ht="12.5">
+    <row r="988" spans="2:5" ht="12.75">
       <c r="B988" s="5"/>
       <c r="E988" s="5"/>
     </row>
-    <row r="989" spans="2:5" ht="12.5">
+    <row r="989" spans="2:5" ht="12.75">
       <c r="B989" s="5"/>
       <c r="E989" s="5"/>
     </row>
-    <row r="990" spans="2:5" ht="12.5">
+    <row r="990" spans="2:5" ht="12.75">
       <c r="B990" s="5"/>
       <c r="E990" s="5"/>
     </row>
-    <row r="991" spans="2:5" ht="12.5">
+    <row r="991" spans="2:5" ht="12.75">
       <c r="B991" s="5"/>
       <c r="E991" s="5"/>
     </row>
-    <row r="992" spans="2:5" ht="12.5">
+    <row r="992" spans="2:5" ht="12.75">
       <c r="B992" s="5"/>
       <c r="E992" s="5"/>
     </row>
-    <row r="993" spans="2:5" ht="12.5">
+    <row r="993" spans="2:5" ht="12.75">
       <c r="B993" s="5"/>
       <c r="E993" s="5"/>
     </row>
-    <row r="994" spans="2:5" ht="12.5">
+    <row r="994" spans="2:5" ht="12.75">
       <c r="B994" s="5"/>
       <c r="E994" s="5"/>
     </row>
-    <row r="995" spans="2:5" ht="12.5">
+    <row r="995" spans="2:5" ht="12.75">
       <c r="B995" s="5"/>
       <c r="E995" s="5"/>
     </row>
-    <row r="996" spans="2:5" ht="12.5">
+    <row r="996" spans="2:5" ht="12.75">
       <c r="B996" s="5"/>
       <c r="E996" s="5"/>
     </row>
-    <row r="997" spans="2:5" ht="12.5">
+    <row r="997" spans="2:5" ht="12.75">
       <c r="B997" s="5"/>
       <c r="E997" s="5"/>
     </row>
-    <row r="998" spans="2:5" ht="12.5">
+    <row r="998" spans="2:5" ht="12.75">
       <c r="B998" s="5"/>
       <c r="E998" s="5"/>
     </row>
-    <row r="999" spans="2:5" ht="12.5">
+    <row r="999" spans="2:5" ht="12.75">
       <c r="B999" s="5"/>
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" spans="2:5" ht="12.5">
+    <row r="1000" spans="2:5" ht="12.75">
       <c r="B1000" s="5"/>
       <c r="E1000" s="5"/>
     </row>
